--- a/Geldautomat_ATM.xlsx
+++ b/Geldautomat_ATM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC6C12-BD69-4452-A9EE-905C1C441342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{2F250386-BB25-41D1-9DD4-7139610505B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{50C9C147-E925-4C04-99B8-FFE8930A841B}"/>
   </bookViews>
@@ -51,7 +51,9 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Case DE'!$B$10:$AJ$165</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Case EN'!$B$10:$AJ$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Case EN'!$B$10:$AJ$172</definedName>
+    <definedName name="_fn">_xlfn.LAMBDA(_xlpm.s,_xlpm.z0,_xlpm.q0, _xlfn.LET(_xlpm.z, _xlfn.SORTBY(_xlpm.z0, _xlpm.z0, -1), _xlpm.q, _xlfn.SORTBY(_xlpm.q0, _xlpm.z0, -1), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.s, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0))))))</definedName>
+    <definedName name="_fx">_xlfn.LAMBDA(_xlpm.s,_xlpm.r, _xlfn.LET(_xlpm.z0, INDEX(Bankdata[], _xlpm.r, _xlfn.SEQUENCE(1, 7, 3, 2)), _xlpm.q0, INDEX(Bankdata[], 6, _xlfn.SEQUENCE(1, 7, 4, 2)), _xlpm.z, _xlfn.SORTBY(_xlpm.z0, _xlpm.z0, -1), _xlpm.q, _xlfn.SORTBY(_xlpm.q0, _xlpm.z0, -1), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.s, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0))))))</definedName>
     <definedName name="IQ_DNTM" hidden="1">700000</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
@@ -97,6 +99,7 @@
     <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,7 +120,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -139,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="214">
   <si>
     <t>Geldautomat</t>
   </si>
@@ -784,6 +787,9 @@
   </si>
   <si>
     <t>Difficult</t>
+  </si>
+  <si>
+    <t>ExFunds: 517</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,6 +1013,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1259,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1446,6 +1458,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1599,7 +1619,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F66CC031-4B0A-4FC8-B047-EE3DA19F5271}" name="Bankdata" displayName="Bankdata" ref="A2:P23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F66CC031-4B0A-4FC8-B047-EE3DA19F5271}" name="Bankdata" displayName="Bankdata" ref="A3:P24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <tableColumns count="16">
     <tableColumn id="16" xr3:uid="{33D82F51-93E5-4807-8415-325F2D43BDCB}" name="Level" dataDxfId="15"/>
     <tableColumn id="1" xr3:uid="{C0E8DE7B-9A58-461E-8685-AFE0825CAC2F}" name="Bank" dataDxfId="14"/>
@@ -1939,7 +1959,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="850" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1951,7 +1971,9 @@
   <we:alternateReferences>
     <we:reference id="WA200003696" version="1.3.0.0" store="" storeType="OMEX"/>
   </we:alternateReferences>
-  <we:properties/>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{7FE79769-81E1-43B0-85C4-9E635A02D93A}&quot;}"/>
+  </we:properties>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
@@ -1971,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A81AA6B-8E40-4088-895F-9744BA54F3C6}">
   <dimension ref="A2:O164"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
   <cols>
@@ -5163,10 +5185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192E9B44-6F22-445A-9A18-8C4FDE921BA0}">
-  <dimension ref="A2:P164"/>
+  <dimension ref="A2:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
@@ -5180,8 +5202,11 @@
     <col min="7" max="7" width="34" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.44140625" style="2"/>
     <col min="21" max="21" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.44140625" style="2"/>
@@ -5523,7 +5548,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="71" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
-        <v>100/370</v>
+        <v>145/370</v>
       </c>
       <c r="J17" s="71"/>
       <c r="K17" s="71"/>
@@ -7483,35 +7508,42 @@
       </c>
       <c r="I112" s="42"/>
     </row>
-    <row r="113" spans="2:8" ht="14.7" customHeight="1">
+    <row r="113" spans="2:17" ht="14.7" customHeight="1">
       <c r="B113" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="14.7" customHeight="1">
+    <row r="114" spans="2:17" ht="14.7" customHeight="1">
       <c r="B114" s="5"/>
       <c r="C114" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="14.7" customHeight="1">
+    <row r="115" spans="2:17" ht="14.7" customHeight="1">
       <c r="B115" s="5"/>
       <c r="C115" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="14.7" customHeight="1">
+    <row r="116" spans="2:17" ht="14.7" customHeight="1">
       <c r="B116" s="5"/>
       <c r="C116" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" ht="15" thickBot="1">
+      <c r="K116" s="1" cm="1">
+        <f t="array" ref="K116:K117">_fx(G120,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" ht="15" thickBot="1">
       <c r="B117" s="5"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="2:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="K117" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" ht="25.5" customHeight="1" thickBot="1">
       <c r="B118" s="9" t="s">
         <v>141</v>
       </c>
@@ -7531,7 +7563,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="15" customHeight="1">
+    <row r="119" spans="2:17" ht="15" customHeight="1">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -7539,7 +7571,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="2:8" ht="25.5" customHeight="1">
+    <row r="120" spans="2:17" ht="25.5" customHeight="1">
       <c r="B120" s="30" t="s">
         <v>178</v>
       </c>
@@ -7562,14 +7594,48 @@
       <c r="H120" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" ht="15" customHeight="1">
+      <c r="J120" s="1">
+        <v>3</v>
+      </c>
+      <c r="L120" s="2">
+        <f>SMALL(K123:K132,K121)</f>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" ht="15" customHeight="1">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="43"/>
-    </row>
-    <row r="122" spans="2:8" ht="25.5" customHeight="1">
+      <c r="J121" s="2" cm="1">
+        <f t="array" ref="J121:K121">INDEX(G122:H131,J120,)</f>
+        <v>12345678</v>
+      </c>
+      <c r="K121" s="2">
+        <v>10</v>
+      </c>
+      <c r="L121" s="2">
+        <f>_xlfn.XMATCH(L120,K123:K132)</f>
+        <v>3</v>
+      </c>
+      <c r="M121" s="2" t="str" cm="1">
+        <f t="array" ref="M121">INDEX(L123:L132,'Case EN'!L121)</f>
+        <v>ExFunds</v>
+      </c>
+      <c r="N121" s="2" cm="1">
+        <f t="array" ref="N121">INDEX(K123:K132,L121)</f>
+        <v>517</v>
+      </c>
+      <c r="O121" s="2" t="str">
+        <f>M121&amp;": "&amp;N121</f>
+        <v>ExFunds: 517</v>
+      </c>
+      <c r="Q121" s="2" t="str">
+        <f>O121</f>
+        <v>ExFunds: 517</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" ht="25.5" customHeight="1">
       <c r="B122" s="36">
         <v>41</v>
       </c>
@@ -7579,10 +7645,12 @@
       <c r="D122" s="32">
         <v>5</v>
       </c>
-      <c r="E122" s="33"/>
+      <c r="E122" s="33" t="s">
+        <v>95</v>
+      </c>
       <c r="F122" s="18">
         <f>IF(ISBLANK(E122),0,IF(E122=Answers!E122,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="34">
         <v>160262</v>
@@ -7590,8 +7658,25 @@
       <c r="H122" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" ht="25.5" customHeight="1">
+      <c r="J122" s="1">
+        <v>1</v>
+      </c>
+      <c r="K122" s="76" cm="1">
+        <f t="array" ref="K122">INDEX(_fx($J$121,J122),2)</f>
+        <v>13694</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P122" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="2" t="str">
+        <f t="dataTable" ref="Q122:Q131" dt2D="0" dtr="0" r1="J120"/>
+        <v>Pivot Finance Group: 14</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" ht="25.5" customHeight="1">
       <c r="B123" s="36">
         <v>42</v>
       </c>
@@ -7601,10 +7686,12 @@
       <c r="D123" s="32">
         <v>5</v>
       </c>
-      <c r="E123" s="33"/>
+      <c r="E123" s="33" t="s">
+        <v>96</v>
+      </c>
       <c r="F123" s="18">
         <f>IF(ISBLANK(E123),0,IF(E123=Answers!E123,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="34">
         <v>77716</v>
@@ -7612,8 +7699,24 @@
       <c r="H123" s="34">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="2:8" ht="25.5" customHeight="1">
+      <c r="J123" s="1">
+        <v>2</v>
+      </c>
+      <c r="K123" s="76" cm="1">
+        <f t="array" ref="K123">INDEX(_fx($J$121,J123),2)</f>
+        <v>177</v>
+      </c>
+      <c r="L123" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="P123" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q123" s="2" t="str">
+        <v>ExFunds: 28</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" ht="25.5" customHeight="1">
       <c r="B124" s="36">
         <v>43</v>
       </c>
@@ -7623,10 +7726,12 @@
       <c r="D124" s="32">
         <v>5</v>
       </c>
-      <c r="E124" s="33"/>
+      <c r="E124" s="33" t="s">
+        <v>213</v>
+      </c>
       <c r="F124" s="18">
         <f>IF(ISBLANK(E124),0,IF(E124=Answers!E124,1,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G124" s="34">
         <v>12345678</v>
@@ -7634,8 +7739,24 @@
       <c r="H124" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="2:8" ht="25.5" customHeight="1">
+      <c r="J124" s="1">
+        <v>3</v>
+      </c>
+      <c r="K124" s="76" cm="1">
+        <f t="array" ref="K124">INDEX(_fx($J$121,J124),2)</f>
+        <v>263</v>
+      </c>
+      <c r="L124" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="P124" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q124" s="2" t="str">
+        <v>ExFunds: 517</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" ht="25.5" customHeight="1">
       <c r="B125" s="36">
         <v>44</v>
       </c>
@@ -7645,10 +7766,12 @@
       <c r="D125" s="32">
         <v>5</v>
       </c>
-      <c r="E125" s="33"/>
+      <c r="E125" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="F125" s="18">
         <f>IF(ISBLANK(E125),0,IF(E125=Answers!E125,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="34">
         <v>10000004</v>
@@ -7656,8 +7779,24 @@
       <c r="H125" s="34">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" ht="25.5" customHeight="1">
+      <c r="J125" s="1">
+        <v>4</v>
+      </c>
+      <c r="K125" s="76" cm="1">
+        <f t="array" ref="K125">INDEX(_fx($J$121,J125),2)</f>
+        <v>517</v>
+      </c>
+      <c r="L125" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="P125" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q125" s="2" t="str">
+        <v>CELLtral Bank: 152</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" ht="25.5" customHeight="1">
       <c r="B126" s="36">
         <v>45</v>
       </c>
@@ -7667,10 +7806,12 @@
       <c r="D126" s="32">
         <v>5</v>
       </c>
-      <c r="E126" s="33"/>
+      <c r="E126" s="33" t="s">
+        <v>99</v>
+      </c>
       <c r="F126" s="18">
         <f>IF(ISBLANK(E126),0,IF(E126=Answers!E126,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="34">
         <v>78121</v>
@@ -7678,8 +7819,24 @@
       <c r="H126" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="2:8" ht="25.5" customHeight="1">
+      <c r="J126" s="1">
+        <v>5</v>
+      </c>
+      <c r="K126" s="76" cm="1">
+        <f t="array" ref="K126">INDEX(_fx($J$121,J126),2)</f>
+        <v>178</v>
+      </c>
+      <c r="L126" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="P126" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q126" s="2" t="str">
+        <v>Pivot Finance Group: 42</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" ht="25.5" customHeight="1">
       <c r="B127" s="36">
         <v>46</v>
       </c>
@@ -7689,10 +7846,12 @@
       <c r="D127" s="32">
         <v>5</v>
       </c>
-      <c r="E127" s="33"/>
+      <c r="E127" s="33" t="s">
+        <v>100</v>
+      </c>
       <c r="F127" s="18">
         <f>IF(ISBLANK(E127),0,IF(E127=Answers!E127,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="34">
         <v>531444</v>
@@ -7700,8 +7859,24 @@
       <c r="H127" s="34">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="2:8" ht="25.5" customHeight="1">
+      <c r="J127" s="1">
+        <v>6</v>
+      </c>
+      <c r="K127" s="76" cm="1">
+        <f t="array" ref="K127">INDEX(_fx($J$121,J127),2)</f>
+        <v>182</v>
+      </c>
+      <c r="L127" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="P127" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q127" s="2" t="str">
+        <v>SheetBank AG: 53</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" ht="25.5" customHeight="1">
       <c r="B128" s="36">
         <v>47</v>
       </c>
@@ -7711,10 +7886,12 @@
       <c r="D128" s="32">
         <v>5</v>
       </c>
-      <c r="E128" s="33"/>
+      <c r="E128" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="F128" s="18">
         <f>IF(ISBLANK(E128),0,IF(E128=Answers!E128,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="34">
         <v>50035</v>
@@ -7722,8 +7899,24 @@
       <c r="H128" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" ht="25.5" customHeight="1">
+      <c r="J128" s="1">
+        <v>7</v>
+      </c>
+      <c r="K128" s="76" cm="1">
+        <f t="array" ref="K128">INDEX(_fx($J$121,J128),2)</f>
+        <v>256</v>
+      </c>
+      <c r="L128" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="P128" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q128" s="2" t="str">
+        <v>ExFunds: 44</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17" ht="25.5" customHeight="1">
       <c r="B129" s="36">
         <v>48</v>
       </c>
@@ -7733,10 +7926,12 @@
       <c r="D129" s="32">
         <v>5</v>
       </c>
-      <c r="E129" s="33"/>
+      <c r="E129" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="F129" s="18">
         <f>IF(ISBLANK(E129),0,IF(E129=Answers!E129,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="34">
         <v>10077691</v>
@@ -7744,8 +7939,24 @@
       <c r="H129" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" ht="25.5" customHeight="1">
+      <c r="J129" s="1">
+        <v>8</v>
+      </c>
+      <c r="K129" s="76" cm="1">
+        <f t="array" ref="K129">INDEX(_fx($J$121,J129),2)</f>
+        <v>327</v>
+      </c>
+      <c r="L129" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="P129" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q129" s="2" t="str">
+        <v>Bank IF: 223</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" ht="25.5" customHeight="1">
       <c r="B130" s="36">
         <v>49</v>
       </c>
@@ -7755,10 +7966,12 @@
       <c r="D130" s="32">
         <v>5</v>
       </c>
-      <c r="E130" s="33"/>
+      <c r="E130" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="F130" s="18">
         <f>IF(ISBLANK(E130),0,IF(E130=Answers!E130,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="34">
         <v>24034</v>
@@ -7766,8 +7979,24 @@
       <c r="H130" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="2:9" ht="25.5" customHeight="1">
+      <c r="J130" s="1">
+        <v>9</v>
+      </c>
+      <c r="K130" s="76" cm="1">
+        <f t="array" ref="K130">INDEX(_fx($J$121,J130),2)</f>
+        <v>184</v>
+      </c>
+      <c r="L130" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="P130" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q130" s="2" t="str">
+        <v>Bank of Cellifornia: 49</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17" ht="25.5" customHeight="1">
       <c r="B131" s="36">
         <v>50</v>
       </c>
@@ -7777,10 +8006,12 @@
       <c r="D131" s="32">
         <v>5</v>
       </c>
-      <c r="E131" s="33"/>
+      <c r="E131" s="33" t="s">
+        <v>104</v>
+      </c>
       <c r="F131" s="18">
         <f>IF(ISBLANK(E131),0,IF(E131=Answers!E131,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="34">
         <v>4782966</v>
@@ -7788,283 +8019,265 @@
       <c r="H131" s="34">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" ht="15" customHeight="1">
+      <c r="J131" s="1">
+        <v>10</v>
+      </c>
+      <c r="K131" s="76" cm="1">
+        <f t="array" ref="K131">INDEX(_fx($J$121,J131),2)</f>
+        <v>253</v>
+      </c>
+      <c r="L131" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="P131" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q131" s="2" t="str">
+        <v>MoneyMATCH Inc.: 90</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" ht="15" customHeight="1">
       <c r="G132" s="6"/>
       <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="2:9" ht="15" customHeight="1" thickBot="1"/>
-    <row r="134" spans="2:9" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B134" s="40" t="s">
+      <c r="J132" s="1">
+        <v>11</v>
+      </c>
+      <c r="K132" s="76" cm="1">
+        <f t="array" ref="K132">INDEX(_fx($J$121,J132),2)</f>
+        <v>184</v>
+      </c>
+      <c r="L132" s="77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" ht="15" customHeight="1">
+      <c r="G133" s="6"/>
+      <c r="H133" s="4"/>
+      <c r="J133" s="1">
+        <v>12</v>
+      </c>
+      <c r="K133" s="76" cm="1">
+        <f t="array" ref="K133">INDEX(_fx($J$121,J133),2)</f>
+        <v>238</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17" ht="15" customHeight="1">
+      <c r="G134" s="6"/>
+      <c r="H134" s="4"/>
+      <c r="J134" s="1">
+        <v>13</v>
+      </c>
+      <c r="K134" s="76" cm="1">
+        <f t="array" ref="K134">INDEX(_fx($J$121,J134),2)</f>
+        <v>116</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17" ht="15" customHeight="1">
+      <c r="G135" s="6"/>
+      <c r="H135" s="4"/>
+      <c r="J135" s="1">
+        <v>14</v>
+      </c>
+      <c r="K135" s="76" cm="1">
+        <f t="array" ref="K135">INDEX(_fx($J$121,J135),2)</f>
+        <v>53</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" ht="15" customHeight="1">
+      <c r="G136" s="6"/>
+      <c r="H136" s="4"/>
+      <c r="J136" s="1">
+        <v>15</v>
+      </c>
+      <c r="K136" s="76" cm="1">
+        <f t="array" ref="K136">INDEX(_fx($J$121,J136),2)</f>
+        <v>50</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" ht="15" customHeight="1">
+      <c r="G137" s="6"/>
+      <c r="H137" s="4"/>
+      <c r="J137" s="1">
+        <v>16</v>
+      </c>
+      <c r="K137" s="76" cm="1">
+        <f t="array" ref="K137">INDEX(_fx($J$121,J137),2)</f>
+        <v>39</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" ht="15" customHeight="1">
+      <c r="G138" s="6"/>
+      <c r="H138" s="4"/>
+      <c r="J138" s="1">
+        <v>17</v>
+      </c>
+      <c r="K138" s="76" cm="1">
+        <f t="array" ref="K138">INDEX(_fx($J$121,J138),2)</f>
+        <v>55</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" ht="15" customHeight="1" thickBot="1">
+      <c r="J139" s="1">
+        <v>18</v>
+      </c>
+      <c r="K139" s="76" cm="1">
+        <f t="array" ref="K139">INDEX(_fx($J$121,J139),2)</f>
+        <v>66</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B140" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="C140" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D134" s="29"/>
-    </row>
-    <row r="135" spans="2:9" ht="14.7" customHeight="1"/>
-    <row r="136" spans="2:9" ht="14.7" customHeight="1">
-      <c r="B136" s="5" t="s">
+      <c r="D140" s="29"/>
+      <c r="J140" s="1">
+        <v>19</v>
+      </c>
+      <c r="K140" s="76" cm="1">
+        <f t="array" ref="K140">INDEX(_fx($J$121,J140),2)</f>
+        <v>54</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17" ht="24.75" customHeight="1">
+      <c r="B141" s="74"/>
+      <c r="C141" s="75"/>
+      <c r="D141" s="29"/>
+      <c r="J141" s="1">
+        <v>20</v>
+      </c>
+      <c r="K141" s="76" cm="1">
+        <f t="array" ref="K141">INDEX(_fx($J$121,J141),2)</f>
+        <v>52</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17" ht="14.7" customHeight="1">
+      <c r="J142" s="2">
+        <v>21</v>
+      </c>
+      <c r="K142" s="76" cm="1">
+        <f t="array" ref="K142">INDEX(_fx($J$121,J142),2)</f>
+        <v>76</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" ht="14.7" customHeight="1">
+      <c r="B143" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="14.7" customHeight="1">
-      <c r="B137" s="5" t="s">
+    <row r="144" spans="2:17" ht="14.7" customHeight="1">
+      <c r="B144" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="14.7" customHeight="1">
-      <c r="B138" s="5" t="s">
+    <row r="145" spans="2:9" ht="14.7" customHeight="1">
+      <c r="B145" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="14.7" customHeight="1">
-      <c r="B139" s="5"/>
-      <c r="C139" s="4" t="s">
+    <row r="146" spans="2:9" ht="14.7" customHeight="1">
+      <c r="B146" s="5"/>
+      <c r="C146" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="14.7" customHeight="1" thickBot="1">
-      <c r="B140" s="5"/>
-      <c r="C140" s="4"/>
-    </row>
-    <row r="141" spans="2:9" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B141" s="9" t="s">
+    <row r="147" spans="2:9" ht="14.7" customHeight="1" thickBot="1">
+      <c r="B147" s="5"/>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="2:9" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B148" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C148" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D148" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="E148" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G141" s="9" t="s">
+      <c r="G148" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="H148" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="I141" s="9" t="s">
+      <c r="I148" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="15" customHeight="1">
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B143" s="30" t="s">
+    <row r="149" spans="2:9" ht="15" customHeight="1">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B150" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C143" s="31">
-        <v>6</v>
-      </c>
-      <c r="D143" s="32">
+      <c r="C150" s="31">
+        <v>6</v>
+      </c>
+      <c r="D150" s="32">
         <v>0</v>
       </c>
-      <c r="E143" s="33" t="s">
+      <c r="E150" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F143" s="18">
-        <f>IF(ISBLANK(E143),0,IF(E143=Answers!E143,1,-1))</f>
-        <v>1</v>
-      </c>
-      <c r="G143" s="34">
+      <c r="F150" s="18">
+        <f>IF(ISBLANK(E150),0,IF(E150=Answers!E143,1,-1))</f>
+        <v>1</v>
+      </c>
+      <c r="G150" s="34">
         <v>2203</v>
       </c>
-      <c r="H143" s="34">
-        <v>1</v>
-      </c>
-      <c r="I143" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B145" s="36">
-        <v>51</v>
-      </c>
-      <c r="C145" s="31">
-        <v>6</v>
-      </c>
-      <c r="D145" s="32">
-        <v>6</v>
-      </c>
-      <c r="E145" s="33"/>
-      <c r="F145" s="18">
-        <f>IF(ISBLANK(E145),0,IF(E145=Answers!E145,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G145" s="34">
-        <v>160262</v>
-      </c>
-      <c r="H145" s="34">
-        <v>1</v>
-      </c>
-      <c r="I145" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B146" s="36">
-        <v>52</v>
-      </c>
-      <c r="C146" s="31">
-        <v>6</v>
-      </c>
-      <c r="D146" s="32">
-        <v>6</v>
-      </c>
-      <c r="E146" s="33"/>
-      <c r="F146" s="18">
-        <f>IF(ISBLANK(E146),0,IF(E146=Answers!E146,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G146" s="34">
-        <v>77716</v>
-      </c>
-      <c r="H146" s="34">
-        <v>1</v>
-      </c>
-      <c r="I146" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B147" s="36">
-        <v>53</v>
-      </c>
-      <c r="C147" s="31">
-        <v>6</v>
-      </c>
-      <c r="D147" s="32">
-        <v>6</v>
-      </c>
-      <c r="E147" s="33"/>
-      <c r="F147" s="18">
-        <f>IF(ISBLANK(E147),0,IF(E147=Answers!E147,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G147" s="34">
-        <v>12345678</v>
-      </c>
-      <c r="H147" s="34">
-        <v>1</v>
-      </c>
-      <c r="I147" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B148" s="36">
-        <v>54</v>
-      </c>
-      <c r="C148" s="31">
-        <v>6</v>
-      </c>
-      <c r="D148" s="32">
-        <v>6</v>
-      </c>
-      <c r="E148" s="33"/>
-      <c r="F148" s="18">
-        <f>IF(ISBLANK(E148),0,IF(E148=Answers!E148,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G148" s="34">
-        <v>10000004</v>
-      </c>
-      <c r="H148" s="34">
-        <v>1</v>
-      </c>
-      <c r="I148" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B149" s="36">
-        <v>55</v>
-      </c>
-      <c r="C149" s="31">
-        <v>6</v>
-      </c>
-      <c r="D149" s="32">
-        <v>6</v>
-      </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="18">
-        <f>IF(ISBLANK(E149),0,IF(E149=Answers!E149,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G149" s="34">
-        <v>78121</v>
-      </c>
-      <c r="H149" s="34">
-        <v>1</v>
-      </c>
-      <c r="I149" s="34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B150" s="36">
-        <v>56</v>
-      </c>
-      <c r="C150" s="31">
-        <v>6</v>
-      </c>
-      <c r="D150" s="32">
-        <v>6</v>
-      </c>
-      <c r="E150" s="33"/>
-      <c r="F150" s="18">
-        <f>IF(ISBLANK(E150),0,IF(E150=Answers!E150,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G150" s="34">
-        <v>531444</v>
-      </c>
       <c r="H150" s="34">
         <v>1</v>
       </c>
       <c r="I150" s="34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B151" s="36">
-        <v>57</v>
-      </c>
-      <c r="C151" s="31">
-        <v>6</v>
-      </c>
-      <c r="D151" s="32">
-        <v>6</v>
-      </c>
-      <c r="E151" s="33"/>
-      <c r="F151" s="18">
-        <f>IF(ISBLANK(E151),0,IF(E151=Answers!E151,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G151" s="34">
-        <v>50035</v>
-      </c>
-      <c r="H151" s="34">
-        <v>2</v>
-      </c>
-      <c r="I151" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="25.5" customHeight="1">
       <c r="B152" s="36">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C152" s="31">
         <v>6</v>
@@ -8074,14 +8287,14 @@
       </c>
       <c r="E152" s="33"/>
       <c r="F152" s="18">
-        <f>IF(ISBLANK(E152),0,IF(E152=Answers!E152,1,-1))</f>
+        <f>IF(ISBLANK(E152),0,IF(E152=Answers!E145,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G152" s="34">
-        <v>10077691</v>
+        <v>160262</v>
       </c>
       <c r="H152" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" s="34">
         <v>2</v>
@@ -8089,7 +8302,7 @@
     </row>
     <row r="153" spans="2:9" ht="25.5" customHeight="1">
       <c r="B153" s="36">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C153" s="31">
         <v>6</v>
@@ -8099,14 +8312,14 @@
       </c>
       <c r="E153" s="33"/>
       <c r="F153" s="18">
-        <f>IF(ISBLANK(E153),0,IF(E153=Answers!E153,1,-1))</f>
+        <f>IF(ISBLANK(E153),0,IF(E153=Answers!E146,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G153" s="34">
-        <v>24034</v>
+        <v>77716</v>
       </c>
       <c r="H153" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" s="34">
         <v>3</v>
@@ -8114,7 +8327,7 @@
     </row>
     <row r="154" spans="2:9" ht="25.5" customHeight="1">
       <c r="B154" s="36">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C154" s="31">
         <v>6</v>
@@ -8124,14 +8337,14 @@
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="18">
-        <f>IF(ISBLANK(E154),0,IF(E154=Answers!E154,1,-1))</f>
+        <f>IF(ISBLANK(E154),0,IF(E154=Answers!E147,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G154" s="34">
-        <v>12456924</v>
+        <v>12345678</v>
       </c>
       <c r="H154" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" s="34">
         <v>4</v>
@@ -8139,7 +8352,7 @@
     </row>
     <row r="155" spans="2:9" ht="25.5" customHeight="1">
       <c r="B155" s="36">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C155" s="31">
         <v>6</v>
@@ -8149,14 +8362,14 @@
       </c>
       <c r="E155" s="33"/>
       <c r="F155" s="18">
-        <f>IF(ISBLANK(E155),0,IF(E155=Answers!E155,1,-1))</f>
+        <f>IF(ISBLANK(E155),0,IF(E155=Answers!E148,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G155" s="34">
-        <v>7731466</v>
+        <v>10000004</v>
       </c>
       <c r="H155" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" s="34">
         <v>5</v>
@@ -8164,7 +8377,7 @@
     </row>
     <row r="156" spans="2:9" ht="25.5" customHeight="1">
       <c r="B156" s="36">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C156" s="31">
         <v>6</v>
@@ -8174,14 +8387,14 @@
       </c>
       <c r="E156" s="33"/>
       <c r="F156" s="18">
-        <f>IF(ISBLANK(E156),0,IF(E156=Answers!E156,1,-1))</f>
+        <f>IF(ISBLANK(E156),0,IF(E156=Answers!E149,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G156" s="34">
-        <v>2857430</v>
+        <v>78121</v>
       </c>
       <c r="H156" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" s="34">
         <v>6</v>
@@ -8189,7 +8402,7 @@
     </row>
     <row r="157" spans="2:9" ht="25.5" customHeight="1">
       <c r="B157" s="36">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C157" s="31">
         <v>6</v>
@@ -8199,14 +8412,14 @@
       </c>
       <c r="E157" s="33"/>
       <c r="F157" s="18">
-        <f>IF(ISBLANK(E157),0,IF(E157=Answers!E157,1,-1))</f>
+        <f>IF(ISBLANK(E157),0,IF(E157=Answers!E150,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G157" s="34">
-        <v>6711262</v>
+        <v>531444</v>
       </c>
       <c r="H157" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" s="34">
         <v>7</v>
@@ -8214,7 +8427,7 @@
     </row>
     <row r="158" spans="2:9" ht="25.5" customHeight="1">
       <c r="B158" s="36">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C158" s="31">
         <v>6</v>
@@ -8224,14 +8437,14 @@
       </c>
       <c r="E158" s="33"/>
       <c r="F158" s="18">
-        <f>IF(ISBLANK(E158),0,IF(E158=Answers!E158,1,-1))</f>
+        <f>IF(ISBLANK(E158),0,IF(E158=Answers!E151,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G158" s="34">
-        <v>10494009</v>
+        <v>50035</v>
       </c>
       <c r="H158" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" s="34">
         <v>1</v>
@@ -8239,7 +8452,7 @@
     </row>
     <row r="159" spans="2:9" ht="25.5" customHeight="1">
       <c r="B159" s="36">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C159" s="31">
         <v>6</v>
@@ -8249,14 +8462,14 @@
       </c>
       <c r="E159" s="33"/>
       <c r="F159" s="18">
-        <f>IF(ISBLANK(E159),0,IF(E159=Answers!E159,1,-1))</f>
+        <f>IF(ISBLANK(E159),0,IF(E159=Answers!E152,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G159" s="34">
-        <v>598202</v>
+        <v>10077691</v>
       </c>
       <c r="H159" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" s="34">
         <v>2</v>
@@ -8264,7 +8477,7 @@
     </row>
     <row r="160" spans="2:9" ht="25.5" customHeight="1">
       <c r="B160" s="36">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C160" s="31">
         <v>6</v>
@@ -8274,14 +8487,14 @@
       </c>
       <c r="E160" s="33"/>
       <c r="F160" s="18">
-        <f>IF(ISBLANK(E160),0,IF(E160=Answers!E160,1,-1))</f>
+        <f>IF(ISBLANK(E160),0,IF(E160=Answers!E153,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G160" s="34">
-        <v>4258646</v>
+        <v>24034</v>
       </c>
       <c r="H160" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" s="34">
         <v>3</v>
@@ -8289,7 +8502,7 @@
     </row>
     <row r="161" spans="2:9" ht="25.5" customHeight="1">
       <c r="B161" s="36">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C161" s="31">
         <v>6</v>
@@ -8299,14 +8512,14 @@
       </c>
       <c r="E161" s="33"/>
       <c r="F161" s="18">
-        <f>IF(ISBLANK(E161),0,IF(E161=Answers!E161,1,-1))</f>
+        <f>IF(ISBLANK(E161),0,IF(E161=Answers!E154,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G161" s="34">
-        <v>6639832</v>
+        <v>12456924</v>
       </c>
       <c r="H161" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" s="34">
         <v>4</v>
@@ -8314,7 +8527,7 @@
     </row>
     <row r="162" spans="2:9" ht="25.5" customHeight="1">
       <c r="B162" s="36">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C162" s="31">
         <v>6</v>
@@ -8324,14 +8537,14 @@
       </c>
       <c r="E162" s="33"/>
       <c r="F162" s="18">
-        <f>IF(ISBLANK(E162),0,IF(E162=Answers!E162,1,-1))</f>
+        <f>IF(ISBLANK(E162),0,IF(E162=Answers!E155,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G162" s="34">
-        <v>11776129</v>
+        <v>7731466</v>
       </c>
       <c r="H162" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" s="34">
         <v>5</v>
@@ -8339,7 +8552,7 @@
     </row>
     <row r="163" spans="2:9" ht="25.5" customHeight="1">
       <c r="B163" s="36">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C163" s="31">
         <v>6</v>
@@ -8349,14 +8562,14 @@
       </c>
       <c r="E163" s="33"/>
       <c r="F163" s="18">
-        <f>IF(ISBLANK(E163),0,IF(E163=Answers!E163,1,-1))</f>
+        <f>IF(ISBLANK(E163),0,IF(E163=Answers!E156,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G163" s="34">
-        <v>1094201</v>
+        <v>2857430</v>
       </c>
       <c r="H163" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" s="34">
         <v>6</v>
@@ -8364,7 +8577,7 @@
     </row>
     <row r="164" spans="2:9" ht="25.5" customHeight="1">
       <c r="B164" s="36">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C164" s="31">
         <v>6</v>
@@ -8374,16 +8587,191 @@
       </c>
       <c r="E164" s="33"/>
       <c r="F164" s="18">
-        <f>IF(ISBLANK(E164),0,IF(E164=Answers!E164,1,-1))</f>
+        <f>IF(ISBLANK(E164),0,IF(E164=Answers!E157,1,-1))</f>
         <v>0</v>
       </c>
       <c r="G164" s="34">
+        <v>6711262</v>
+      </c>
+      <c r="H164" s="34">
+        <v>2</v>
+      </c>
+      <c r="I164" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B165" s="36">
+        <v>64</v>
+      </c>
+      <c r="C165" s="31">
+        <v>6</v>
+      </c>
+      <c r="D165" s="32">
+        <v>6</v>
+      </c>
+      <c r="E165" s="33"/>
+      <c r="F165" s="18">
+        <f>IF(ISBLANK(E165),0,IF(E165=Answers!E158,1,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G165" s="34">
+        <v>10494009</v>
+      </c>
+      <c r="H165" s="34">
+        <v>3</v>
+      </c>
+      <c r="I165" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B166" s="36">
+        <v>65</v>
+      </c>
+      <c r="C166" s="31">
+        <v>6</v>
+      </c>
+      <c r="D166" s="32">
+        <v>6</v>
+      </c>
+      <c r="E166" s="33"/>
+      <c r="F166" s="18">
+        <f>IF(ISBLANK(E166),0,IF(E166=Answers!E159,1,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G166" s="34">
+        <v>598202</v>
+      </c>
+      <c r="H166" s="34">
+        <v>3</v>
+      </c>
+      <c r="I166" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B167" s="36">
+        <v>66</v>
+      </c>
+      <c r="C167" s="31">
+        <v>6</v>
+      </c>
+      <c r="D167" s="32">
+        <v>6</v>
+      </c>
+      <c r="E167" s="33"/>
+      <c r="F167" s="18">
+        <f>IF(ISBLANK(E167),0,IF(E167=Answers!E160,1,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G167" s="34">
+        <v>4258646</v>
+      </c>
+      <c r="H167" s="34">
+        <v>3</v>
+      </c>
+      <c r="I167" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B168" s="36">
+        <v>67</v>
+      </c>
+      <c r="C168" s="31">
+        <v>6</v>
+      </c>
+      <c r="D168" s="32">
+        <v>6</v>
+      </c>
+      <c r="E168" s="33"/>
+      <c r="F168" s="18">
+        <f>IF(ISBLANK(E168),0,IF(E168=Answers!E161,1,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G168" s="34">
+        <v>6639832</v>
+      </c>
+      <c r="H168" s="34">
+        <v>3</v>
+      </c>
+      <c r="I168" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B169" s="36">
+        <v>68</v>
+      </c>
+      <c r="C169" s="31">
+        <v>6</v>
+      </c>
+      <c r="D169" s="32">
+        <v>6</v>
+      </c>
+      <c r="E169" s="33"/>
+      <c r="F169" s="18">
+        <f>IF(ISBLANK(E169),0,IF(E169=Answers!E162,1,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G169" s="34">
+        <v>11776129</v>
+      </c>
+      <c r="H169" s="34">
+        <v>3</v>
+      </c>
+      <c r="I169" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B170" s="36">
+        <v>69</v>
+      </c>
+      <c r="C170" s="31">
+        <v>6</v>
+      </c>
+      <c r="D170" s="32">
+        <v>6</v>
+      </c>
+      <c r="E170" s="33"/>
+      <c r="F170" s="18">
+        <f>IF(ISBLANK(E170),0,IF(E170=Answers!E163,1,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G170" s="34">
+        <v>1094201</v>
+      </c>
+      <c r="H170" s="34">
+        <v>3</v>
+      </c>
+      <c r="I170" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B171" s="36">
+        <v>70</v>
+      </c>
+      <c r="C171" s="31">
+        <v>6</v>
+      </c>
+      <c r="D171" s="32">
+        <v>6</v>
+      </c>
+      <c r="E171" s="33"/>
+      <c r="F171" s="18">
+        <f>IF(ISBLANK(E171),0,IF(E171=Answers!E164,1,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G171" s="34">
         <v>3421594</v>
       </c>
-      <c r="H164" s="34">
+      <c r="H171" s="34">
         <v>3</v>
       </c>
-      <c r="I164" s="34">
+      <c r="I171" s="34">
         <v>7</v>
       </c>
     </row>
@@ -8704,7 +9092,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F143</xm:sqref>
+          <xm:sqref>F150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="5" id="{B76F18AD-BBFF-4304-A5D5-4FD56F884141}">
@@ -8723,7 +9111,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F145:F164</xm:sqref>
+          <xm:sqref>F152:F171</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8735,8 +9123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF27E72-C0A8-423E-B550-B7E133FBE934}">
   <dimension ref="A2:O164"/>
   <sheetViews>
-    <sheetView topLeftCell="D77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
@@ -11959,9 +12347,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC71D1EF-0DAC-4349-8885-410BD14E743A}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A2:X24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="25.8"/>
   <cols>
@@ -11992,197 +12382,150 @@
     <col min="25" max="16384" width="11.44140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="53" t="str">
-        <f>_xlfn.TRANSLATE(A2,,"en")</f>
+    <row r="2" spans="1:24">
+      <c r="A2" s="53" t="str">
+        <f>_xlfn.TRANSLATE(A3,,"en")</f>
         <v>Level</v>
       </c>
-      <c r="B1" s="53" t="str">
-        <f t="shared" ref="B1" si="0">_xlfn.TRANSLATE(B2,,"en")</f>
+      <c r="B2" s="53" t="str">
+        <f>_xlfn.TRANSLATE(B3,,"en")</f>
         <v>Bank</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C2" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D2" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E2" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F2" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J2" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K2" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L2" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M2" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N2" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O2" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P2" s="53" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="45" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D3" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E3" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F3" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H3" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J3" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K3" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L3" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N3" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P3" s="51" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="45">
-        <v>6</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="R3" s="45">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="45">
+        <v>6</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C4" s="46">
         <v>100</v>
-      </c>
-      <c r="D3" s="46">
-        <v>100</v>
-      </c>
-      <c r="E3" s="46">
-        <v>50</v>
-      </c>
-      <c r="F3" s="46">
-        <v>100</v>
-      </c>
-      <c r="G3" s="46">
-        <v>20</v>
-      </c>
-      <c r="H3" s="46">
-        <v>100</v>
-      </c>
-      <c r="I3" s="46">
-        <v>10</v>
-      </c>
-      <c r="J3" s="46">
-        <v>100</v>
-      </c>
-      <c r="K3" s="46">
-        <v>5</v>
-      </c>
-      <c r="L3" s="46">
-        <v>100</v>
-      </c>
-      <c r="M3" s="46">
-        <v>2</v>
-      </c>
-      <c r="N3" s="46">
-        <v>100</v>
-      </c>
-      <c r="O3" s="46">
-        <v>1</v>
-      </c>
-      <c r="P3" s="46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="46">
-        <v>100000</v>
       </c>
       <c r="D4" s="46">
         <v>100</v>
       </c>
       <c r="E4" s="46">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="F4" s="46">
         <v>100</v>
       </c>
       <c r="G4" s="46">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="H4" s="46">
         <v>100</v>
       </c>
       <c r="I4" s="46">
-        <v>7500</v>
+        <v>10</v>
       </c>
       <c r="J4" s="46">
         <v>100</v>
       </c>
       <c r="K4" s="46">
-        <v>2250</v>
+        <v>5</v>
       </c>
       <c r="L4" s="46">
         <v>100</v>
       </c>
       <c r="M4" s="46">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N4" s="46">
         <v>100</v>
@@ -12193,605 +12536,695 @@
       <c r="P4" s="46">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="R4" s="45" cm="1">
+        <f t="array" ref="R4:X4">INDEX(Bankdata[],6,_xlfn.SEQUENCE(1,7,3,2))</f>
+        <v>75462</v>
+      </c>
+      <c r="S4" s="45">
+        <v>24310</v>
+      </c>
+      <c r="T4" s="45">
+        <v>4822</v>
+      </c>
+      <c r="U4" s="45">
+        <v>2724</v>
+      </c>
+      <c r="V4" s="45">
+        <v>199</v>
+      </c>
+      <c r="W4" s="45">
+        <v>45</v>
+      </c>
+      <c r="X4" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="46">
-        <v>62013</v>
+        <v>100000</v>
       </c>
       <c r="D5" s="46">
-        <v>3584</v>
+        <v>100</v>
       </c>
       <c r="E5" s="46">
-        <v>12152</v>
+        <v>50000</v>
       </c>
       <c r="F5" s="46">
-        <v>3486</v>
+        <v>100</v>
       </c>
       <c r="G5" s="46">
-        <v>11241</v>
+        <v>20000</v>
       </c>
       <c r="H5" s="46">
-        <v>2203</v>
+        <v>100</v>
       </c>
       <c r="I5" s="46">
-        <v>2850</v>
+        <v>7500</v>
       </c>
       <c r="J5" s="46">
-        <v>3599</v>
+        <v>100</v>
       </c>
       <c r="K5" s="46">
+        <v>2250</v>
+      </c>
+      <c r="L5" s="46">
         <v>100</v>
       </c>
-      <c r="L5" s="46">
-        <v>3635</v>
-      </c>
       <c r="M5" s="46">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="N5" s="46">
-        <v>2150</v>
+        <v>100</v>
       </c>
       <c r="O5" s="46">
         <v>1</v>
       </c>
       <c r="P5" s="46">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>100</v>
+      </c>
+      <c r="R5" s="45" cm="1">
+        <f t="array" ref="R5:X5">INDEX(Bankdata[],6,_xlfn.SEQUENCE(1,7,4,2))</f>
+        <v>972</v>
+      </c>
+      <c r="S5" s="45">
+        <v>2785</v>
+      </c>
+      <c r="T5" s="45">
+        <v>1801</v>
+      </c>
+      <c r="U5" s="45">
+        <v>1256</v>
+      </c>
+      <c r="V5" s="45">
+        <v>3768</v>
+      </c>
+      <c r="W5" s="45">
+        <v>1794</v>
+      </c>
+      <c r="X5" s="45">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="46">
-        <v>25398</v>
+        <v>62013</v>
       </c>
       <c r="D6" s="46">
-        <v>321</v>
+        <v>3584</v>
       </c>
       <c r="E6" s="46">
-        <v>5414</v>
+        <v>12152</v>
       </c>
       <c r="F6" s="46">
-        <v>3619</v>
+        <v>3486</v>
       </c>
       <c r="G6" s="46">
-        <v>4484</v>
+        <v>11241</v>
       </c>
       <c r="H6" s="46">
-        <v>1231</v>
+        <v>2203</v>
       </c>
       <c r="I6" s="46">
-        <v>3238</v>
+        <v>2850</v>
       </c>
       <c r="J6" s="46">
-        <v>673</v>
+        <v>3599</v>
       </c>
       <c r="K6" s="46">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L6" s="46">
-        <v>2322</v>
+        <v>3635</v>
       </c>
       <c r="M6" s="46">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="N6" s="46">
-        <v>3235</v>
+        <v>2150</v>
       </c>
       <c r="O6" s="46">
         <v>1</v>
       </c>
       <c r="P6" s="46">
-        <v>3213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>1337</v>
+      </c>
+      <c r="R6" s="45" cm="1">
+        <f t="array" ref="R6:X6">_xlfn.LET(_xlpm.z,_xlfn.SORTBY(_xlfn.ANCHORARRAY(R4),_xlfn.ANCHORARRAY(R4),-1),_xlpm.q,_xlfn.SORTBY(_xlfn.ANCHORARRAY(R5),_xlfn.ANCHORARRAY(R4),-1),
+_xlfn.SCAN(2203,_xlfn.SEQUENCE(1,7),
+_xlfn.LAMBDA(_xlpm.a,_xlpm.v,
+_xlfn.LET(_xlpm.tmp,_xlpm.a-INDEX(_xlpm.z,1,_xlpm.v)*MIN(QUOTIENT(_xlpm.a,INDEX(_xlpm.z,1,_xlpm.v)),INDEX(_xlpm.q,1,_xlpm.v)),_xlpm.tmp))))</f>
+        <v>2203</v>
+      </c>
+      <c r="S6" s="45">
+        <v>2203</v>
+      </c>
+      <c r="T6" s="45">
+        <v>2203</v>
+      </c>
+      <c r="U6" s="45">
+        <v>2203</v>
+      </c>
+      <c r="V6" s="45">
+        <v>14</v>
+      </c>
+      <c r="W6" s="45">
+        <v>14</v>
+      </c>
+      <c r="X6" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="46">
-        <v>90046</v>
+        <v>25398</v>
       </c>
       <c r="D7" s="46">
-        <v>4313</v>
+        <v>321</v>
       </c>
       <c r="E7" s="46">
-        <v>13451</v>
+        <v>5414</v>
       </c>
       <c r="F7" s="46">
-        <v>2305</v>
+        <v>3619</v>
       </c>
       <c r="G7" s="46">
-        <v>9278</v>
+        <v>4484</v>
       </c>
       <c r="H7" s="46">
-        <v>2168</v>
+        <v>1231</v>
       </c>
       <c r="I7" s="46">
-        <v>3209</v>
+        <v>3238</v>
       </c>
       <c r="J7" s="46">
-        <v>119</v>
+        <v>673</v>
       </c>
       <c r="K7" s="46">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L7" s="46">
-        <v>296</v>
+        <v>2322</v>
       </c>
       <c r="M7" s="46">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N7" s="46">
-        <v>3210</v>
+        <v>3235</v>
       </c>
       <c r="O7" s="46">
         <v>1</v>
       </c>
       <c r="P7" s="46">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="46">
-        <v>75462</v>
+        <v>90046</v>
       </c>
       <c r="D8" s="46">
-        <v>972</v>
+        <v>4313</v>
       </c>
       <c r="E8" s="46">
-        <v>24310</v>
+        <v>13451</v>
       </c>
       <c r="F8" s="46">
-        <v>2785</v>
+        <v>2305</v>
       </c>
       <c r="G8" s="46">
-        <v>4822</v>
+        <v>9278</v>
       </c>
       <c r="H8" s="46">
-        <v>1801</v>
+        <v>2168</v>
       </c>
       <c r="I8" s="46">
-        <v>2724</v>
+        <v>3209</v>
       </c>
       <c r="J8" s="46">
-        <v>1256</v>
+        <v>119</v>
       </c>
       <c r="K8" s="46">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="L8" s="46">
-        <v>3768</v>
+        <v>296</v>
       </c>
       <c r="M8" s="46">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N8" s="46">
-        <v>1794</v>
+        <v>3210</v>
       </c>
       <c r="O8" s="46">
         <v>1</v>
       </c>
       <c r="P8" s="46">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>368</v>
+      </c>
+      <c r="R8" s="45" cm="1">
+        <f t="array" ref="R8:R9">_xlfn.LET(_xlpm.z, _xlfn.SORTBY(_xlfn.ANCHORARRAY(R4),_xlfn.ANCHORARRAY( R4), -1), _xlpm.q, _xlfn.SORTBY(_xlfn.ANCHORARRAY(R5),_xlfn.ANCHORARRAY( R4), -1), _xlfn.REDUCE(_xlfn.VSTACK(2203, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="46">
-        <v>54159</v>
+        <v>75462</v>
       </c>
       <c r="D9" s="46">
-        <v>3698</v>
+        <v>972</v>
       </c>
       <c r="E9" s="46">
-        <v>12111</v>
+        <v>24310</v>
       </c>
       <c r="F9" s="46">
-        <v>415</v>
+        <v>2785</v>
       </c>
       <c r="G9" s="46">
-        <v>9313</v>
+        <v>4822</v>
       </c>
       <c r="H9" s="46">
-        <v>972</v>
+        <v>1801</v>
       </c>
       <c r="I9" s="46">
-        <v>2427</v>
+        <v>2724</v>
       </c>
       <c r="J9" s="46">
-        <v>3384</v>
+        <v>1256</v>
       </c>
       <c r="K9" s="46">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="L9" s="46">
-        <v>3053</v>
+        <v>3768</v>
       </c>
       <c r="M9" s="46">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N9" s="46">
-        <v>782</v>
+        <v>1794</v>
       </c>
       <c r="O9" s="46">
         <v>1</v>
       </c>
       <c r="P9" s="46">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>1318</v>
+      </c>
+      <c r="R9" s="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="46">
-        <v>39398</v>
+        <v>54159</v>
       </c>
       <c r="D10" s="46">
-        <v>2304</v>
+        <v>3698</v>
       </c>
       <c r="E10" s="46">
-        <v>22222</v>
+        <v>12111</v>
       </c>
       <c r="F10" s="46">
-        <v>1141</v>
+        <v>415</v>
       </c>
       <c r="G10" s="46">
-        <v>9394</v>
+        <v>9313</v>
       </c>
       <c r="H10" s="46">
-        <v>90</v>
+        <v>972</v>
       </c>
       <c r="I10" s="46">
-        <v>1469</v>
+        <v>2427</v>
       </c>
       <c r="J10" s="46">
-        <v>1680</v>
+        <v>3384</v>
       </c>
       <c r="K10" s="46">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="L10" s="46">
-        <v>2558</v>
+        <v>3053</v>
       </c>
       <c r="M10" s="46">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="N10" s="46">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="O10" s="46">
         <v>1</v>
       </c>
       <c r="P10" s="46">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="46">
-        <v>83922</v>
+        <v>39398</v>
       </c>
       <c r="D11" s="46">
-        <v>3379</v>
+        <v>2304</v>
       </c>
       <c r="E11" s="46">
-        <v>24169</v>
+        <v>22222</v>
       </c>
       <c r="F11" s="46">
-        <v>205</v>
+        <v>1141</v>
       </c>
       <c r="G11" s="46">
-        <v>4752</v>
+        <v>9394</v>
       </c>
       <c r="H11" s="46">
-        <v>3000</v>
+        <v>90</v>
       </c>
       <c r="I11" s="46">
-        <v>2784</v>
+        <v>1469</v>
       </c>
       <c r="J11" s="46">
-        <v>2772</v>
+        <v>1680</v>
       </c>
       <c r="K11" s="46">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="L11" s="46">
-        <v>3854</v>
+        <v>2558</v>
       </c>
       <c r="M11" s="46">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N11" s="46">
-        <v>1092</v>
+        <v>805</v>
       </c>
       <c r="O11" s="46">
         <v>1</v>
       </c>
       <c r="P11" s="46">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>687</v>
+      </c>
+      <c r="R11" s="45" cm="1">
+        <f t="array" ref="R11:R12">_xlfn.LAMBDA(_xlpm.s,_xlpm.r, _xlfn.LET(_xlpm.z0, INDEX(Bankdata[], _xlpm.r, _xlfn.SEQUENCE(1, 7, 3, 2)), _xlpm.q0, INDEX(Bankdata[], 6, _xlfn.SEQUENCE(1, 7, 4, 2)), _xlpm.z, _xlfn.SORTBY(_xlpm.z0, _xlpm.z0, -1), _xlpm.q, _xlfn.SORTBY(_xlpm.q0, _xlpm.z0, -1), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.s, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0))))))(2203, 6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="46">
-        <v>59042</v>
+        <v>83922</v>
       </c>
       <c r="D12" s="46">
-        <v>2020</v>
+        <v>3379</v>
       </c>
       <c r="E12" s="46">
-        <v>34102</v>
+        <v>24169</v>
       </c>
       <c r="F12" s="46">
-        <v>2393</v>
+        <v>205</v>
       </c>
       <c r="G12" s="46">
-        <v>7985</v>
+        <v>4752</v>
       </c>
       <c r="H12" s="46">
-        <v>3959</v>
+        <v>3000</v>
       </c>
       <c r="I12" s="46">
-        <v>1213</v>
+        <v>2784</v>
       </c>
       <c r="J12" s="46">
-        <v>3346</v>
+        <v>2772</v>
       </c>
       <c r="K12" s="46">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="L12" s="46">
-        <v>2299</v>
+        <v>3854</v>
       </c>
       <c r="M12" s="46">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N12" s="46">
-        <v>2887</v>
+        <v>1092</v>
       </c>
       <c r="O12" s="46">
         <v>1</v>
       </c>
       <c r="P12" s="46">
-        <v>3177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>3349</v>
+      </c>
+      <c r="R12" s="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="46">
+        <v>59042</v>
+      </c>
+      <c r="D13" s="46">
+        <v>2020</v>
+      </c>
+      <c r="E13" s="46">
+        <v>34102</v>
+      </c>
+      <c r="F13" s="46">
+        <v>2393</v>
+      </c>
+      <c r="G13" s="46">
+        <v>7985</v>
+      </c>
+      <c r="H13" s="46">
+        <v>3959</v>
+      </c>
+      <c r="I13" s="46">
+        <v>1213</v>
+      </c>
+      <c r="J13" s="46">
+        <v>3346</v>
+      </c>
+      <c r="K13" s="46">
+        <v>145</v>
+      </c>
+      <c r="L13" s="46">
+        <v>2299</v>
+      </c>
+      <c r="M13" s="46">
+        <v>50</v>
+      </c>
+      <c r="N13" s="46">
+        <v>2887</v>
+      </c>
+      <c r="O13" s="46">
+        <v>1</v>
+      </c>
+      <c r="P13" s="46">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C14" s="46">
         <v>74884</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D14" s="46">
         <v>715</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E14" s="46">
         <v>32415</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F14" s="46">
         <v>2489</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G14" s="46">
         <v>9040</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H14" s="46">
         <v>2195</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I14" s="46">
         <v>420</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J14" s="46">
         <v>1705</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K14" s="46">
         <v>137</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L14" s="46">
         <v>2262</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M14" s="46">
         <v>42</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N14" s="46">
         <v>459</v>
       </c>
-      <c r="O13" s="46">
-        <v>1</v>
-      </c>
-      <c r="P13" s="46">
+      <c r="O14" s="46">
+        <v>1</v>
+      </c>
+      <c r="P14" s="46">
         <v>3268</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="46">
-        <v>60402</v>
-      </c>
-      <c r="D14" s="46">
-        <v>16699</v>
-      </c>
-      <c r="E14" s="46">
-        <v>20945</v>
-      </c>
-      <c r="F14" s="46">
-        <v>13293</v>
-      </c>
-      <c r="G14" s="46">
-        <v>8212</v>
-      </c>
-      <c r="H14" s="46">
-        <v>42248</v>
-      </c>
-      <c r="I14" s="46">
-        <v>2531</v>
-      </c>
-      <c r="J14" s="46">
-        <v>69188</v>
-      </c>
-      <c r="K14" s="46">
-        <v>321</v>
-      </c>
-      <c r="L14" s="46">
-        <v>2204</v>
-      </c>
-      <c r="M14" s="46">
-        <v>55</v>
-      </c>
-      <c r="N14" s="46">
-        <v>1510</v>
-      </c>
-      <c r="O14" s="46">
-        <v>1</v>
-      </c>
-      <c r="P14" s="46">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="R14" s="45" cm="1">
+        <f t="array" ref="R14:R15">_fx(2203,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="46">
+        <v>60402</v>
+      </c>
+      <c r="D15" s="46">
+        <v>16699</v>
+      </c>
+      <c r="E15" s="46">
+        <v>20945</v>
+      </c>
+      <c r="F15" s="46">
+        <v>13293</v>
+      </c>
+      <c r="G15" s="46">
+        <v>8212</v>
+      </c>
+      <c r="H15" s="46">
+        <v>42248</v>
+      </c>
+      <c r="I15" s="46">
+        <v>2531</v>
+      </c>
+      <c r="J15" s="46">
+        <v>69188</v>
+      </c>
+      <c r="K15" s="46">
+        <v>321</v>
+      </c>
+      <c r="L15" s="46">
+        <v>2204</v>
+      </c>
+      <c r="M15" s="46">
         <v>55</v>
       </c>
-      <c r="C15" s="46">
-        <v>164283</v>
-      </c>
-      <c r="D15" s="46">
-        <v>144584</v>
-      </c>
-      <c r="E15" s="46">
-        <v>96901</v>
-      </c>
-      <c r="F15" s="46">
-        <v>46925</v>
-      </c>
-      <c r="G15" s="46">
-        <v>9009</v>
-      </c>
-      <c r="H15" s="46">
-        <v>16543</v>
-      </c>
-      <c r="I15" s="46">
-        <v>184</v>
-      </c>
-      <c r="J15" s="46">
-        <v>13794</v>
-      </c>
-      <c r="K15" s="46">
-        <v>88</v>
-      </c>
-      <c r="L15" s="46">
-        <v>3584</v>
-      </c>
-      <c r="M15" s="46">
-        <v>6</v>
-      </c>
       <c r="N15" s="46">
-        <v>3584</v>
+        <v>1510</v>
       </c>
       <c r="O15" s="46">
         <v>1</v>
       </c>
       <c r="P15" s="46">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>1626</v>
+      </c>
+      <c r="R15" s="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="46">
-        <v>390050</v>
+        <v>164283</v>
       </c>
       <c r="D16" s="46">
-        <v>117503</v>
+        <v>144584</v>
       </c>
       <c r="E16" s="46">
-        <v>86291</v>
+        <v>96901</v>
       </c>
       <c r="F16" s="46">
-        <v>26623</v>
+        <v>46925</v>
       </c>
       <c r="G16" s="46">
-        <v>6252</v>
+        <v>9009</v>
       </c>
       <c r="H16" s="46">
-        <v>20944</v>
+        <v>16543</v>
       </c>
       <c r="I16" s="46">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="J16" s="46">
-        <v>74552</v>
+        <v>13794</v>
       </c>
       <c r="K16" s="46">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L16" s="46">
-        <v>321</v>
+        <v>3584</v>
       </c>
       <c r="M16" s="46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N16" s="46">
-        <v>321</v>
+        <v>3584</v>
       </c>
       <c r="O16" s="46">
         <v>1</v>
       </c>
       <c r="P16" s="46">
-        <v>321</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -12799,49 +13232,49 @@
         <v>53</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="46">
-        <v>946322</v>
+        <v>390050</v>
       </c>
       <c r="D17" s="46">
-        <v>140839</v>
+        <v>117503</v>
       </c>
       <c r="E17" s="46">
-        <v>75447</v>
+        <v>86291</v>
       </c>
       <c r="F17" s="46">
-        <v>49059</v>
+        <v>26623</v>
       </c>
       <c r="G17" s="46">
-        <v>3282</v>
+        <v>6252</v>
       </c>
       <c r="H17" s="46">
-        <v>92570</v>
+        <v>20944</v>
       </c>
       <c r="I17" s="46">
-        <v>339</v>
+        <v>103</v>
       </c>
       <c r="J17" s="46">
-        <v>18534</v>
+        <v>74552</v>
       </c>
       <c r="K17" s="46">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="L17" s="46">
-        <v>4313</v>
+        <v>321</v>
       </c>
       <c r="M17" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="46">
-        <v>4313</v>
+        <v>321</v>
       </c>
       <c r="O17" s="46">
         <v>1</v>
       </c>
       <c r="P17" s="46">
-        <v>4313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -12849,49 +13282,49 @@
         <v>53</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="46">
-        <v>957047</v>
+        <v>946322</v>
       </c>
       <c r="D18" s="46">
-        <v>21019</v>
+        <v>140839</v>
       </c>
       <c r="E18" s="46">
-        <v>95229</v>
+        <v>75447</v>
       </c>
       <c r="F18" s="46">
-        <v>25445</v>
+        <v>49059</v>
       </c>
       <c r="G18" s="46">
-        <v>8783</v>
+        <v>3282</v>
       </c>
       <c r="H18" s="46">
-        <v>62884</v>
+        <v>92570</v>
       </c>
       <c r="I18" s="46">
-        <v>799</v>
+        <v>339</v>
       </c>
       <c r="J18" s="46">
-        <v>58071</v>
+        <v>18534</v>
       </c>
       <c r="K18" s="46">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L18" s="46">
-        <v>972</v>
+        <v>4313</v>
       </c>
       <c r="M18" s="46">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N18" s="46">
-        <v>972</v>
+        <v>4313</v>
       </c>
       <c r="O18" s="46">
         <v>1</v>
       </c>
       <c r="P18" s="46">
-        <v>972</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -12899,49 +13332,49 @@
         <v>53</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="46">
-        <v>557816</v>
+        <v>957047</v>
       </c>
       <c r="D19" s="46">
-        <v>118992</v>
+        <v>21019</v>
       </c>
       <c r="E19" s="46">
-        <v>37539</v>
+        <v>95229</v>
       </c>
       <c r="F19" s="46">
-        <v>66573</v>
+        <v>25445</v>
       </c>
       <c r="G19" s="46">
-        <v>4196</v>
+        <v>8783</v>
       </c>
       <c r="H19" s="46">
-        <v>31595</v>
+        <v>62884</v>
       </c>
       <c r="I19" s="46">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="J19" s="46">
-        <v>98624</v>
+        <v>58071</v>
       </c>
       <c r="K19" s="46">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L19" s="46">
-        <v>3698</v>
+        <v>972</v>
       </c>
       <c r="M19" s="46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N19" s="46">
-        <v>3698</v>
+        <v>972</v>
       </c>
       <c r="O19" s="46">
         <v>1</v>
       </c>
       <c r="P19" s="46">
-        <v>3698</v>
+        <v>972</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -12949,49 +13382,49 @@
         <v>53</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="46">
-        <v>433171</v>
+        <v>557816</v>
       </c>
       <c r="D20" s="46">
-        <v>110112</v>
+        <v>118992</v>
       </c>
       <c r="E20" s="46">
-        <v>38578</v>
+        <v>37539</v>
       </c>
       <c r="F20" s="46">
-        <v>18343</v>
+        <v>66573</v>
       </c>
       <c r="G20" s="46">
-        <v>4623</v>
+        <v>4196</v>
       </c>
       <c r="H20" s="46">
-        <v>44759</v>
+        <v>31595</v>
       </c>
       <c r="I20" s="46">
-        <v>620</v>
+        <v>793</v>
       </c>
       <c r="J20" s="46">
-        <v>34982</v>
+        <v>98624</v>
       </c>
       <c r="K20" s="46">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="L20" s="46">
-        <v>2304</v>
+        <v>3698</v>
       </c>
       <c r="M20" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" s="46">
-        <v>2304</v>
+        <v>3698</v>
       </c>
       <c r="O20" s="46">
         <v>1</v>
       </c>
       <c r="P20" s="46">
-        <v>2304</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -12999,49 +13432,49 @@
         <v>53</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="46">
-        <v>503786</v>
+        <v>433171</v>
       </c>
       <c r="D21" s="46">
-        <v>31459</v>
+        <v>110112</v>
       </c>
       <c r="E21" s="46">
-        <v>44685</v>
+        <v>38578</v>
       </c>
       <c r="F21" s="46">
-        <v>19174</v>
+        <v>18343</v>
       </c>
       <c r="G21" s="46">
-        <v>7744</v>
+        <v>4623</v>
       </c>
       <c r="H21" s="46">
-        <v>22968</v>
+        <v>44759</v>
       </c>
       <c r="I21" s="46">
-        <v>671</v>
+        <v>620</v>
       </c>
       <c r="J21" s="46">
-        <v>20958</v>
+        <v>34982</v>
       </c>
       <c r="K21" s="46">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="L21" s="46">
-        <v>3379</v>
+        <v>2304</v>
       </c>
       <c r="M21" s="46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N21" s="46">
-        <v>3379</v>
+        <v>2304</v>
       </c>
       <c r="O21" s="46">
         <v>1</v>
       </c>
       <c r="P21" s="46">
-        <v>3379</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -13049,49 +13482,49 @@
         <v>53</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="46">
-        <v>958141</v>
+        <v>503786</v>
       </c>
       <c r="D22" s="46">
-        <v>103522</v>
+        <v>31459</v>
       </c>
       <c r="E22" s="46">
-        <v>73334</v>
+        <v>44685</v>
       </c>
       <c r="F22" s="46">
-        <v>33315</v>
+        <v>19174</v>
       </c>
       <c r="G22" s="46">
-        <v>7680</v>
+        <v>7744</v>
       </c>
       <c r="H22" s="46">
-        <v>73995</v>
+        <v>22968</v>
       </c>
       <c r="I22" s="46">
-        <v>319</v>
+        <v>671</v>
       </c>
       <c r="J22" s="46">
-        <v>52690</v>
+        <v>20958</v>
       </c>
       <c r="K22" s="46">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="L22" s="46">
-        <v>2020</v>
+        <v>3379</v>
       </c>
       <c r="M22" s="46">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N22" s="46">
-        <v>2020</v>
+        <v>3379</v>
       </c>
       <c r="O22" s="46">
         <v>1</v>
       </c>
       <c r="P22" s="46">
-        <v>2020</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -13099,55 +13532,118 @@
         <v>53</v>
       </c>
       <c r="B23" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="46">
+        <v>958141</v>
+      </c>
+      <c r="D23" s="46">
+        <v>103522</v>
+      </c>
+      <c r="E23" s="46">
+        <v>73334</v>
+      </c>
+      <c r="F23" s="46">
+        <v>33315</v>
+      </c>
+      <c r="G23" s="46">
+        <v>7680</v>
+      </c>
+      <c r="H23" s="46">
+        <v>73995</v>
+      </c>
+      <c r="I23" s="46">
+        <v>319</v>
+      </c>
+      <c r="J23" s="46">
+        <v>52690</v>
+      </c>
+      <c r="K23" s="46">
+        <v>86</v>
+      </c>
+      <c r="L23" s="46">
+        <v>2020</v>
+      </c>
+      <c r="M23" s="46">
+        <v>3</v>
+      </c>
+      <c r="N23" s="46">
+        <v>2020</v>
+      </c>
+      <c r="O23" s="46">
+        <v>1</v>
+      </c>
+      <c r="P23" s="46">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C24" s="46">
         <v>304665</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D24" s="46">
         <v>149373</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E24" s="46">
         <v>34273</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F24" s="46">
         <v>26923</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G24" s="46">
         <v>3303</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H24" s="46">
         <v>77860</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I24" s="46">
         <v>797</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J24" s="46">
         <v>91627</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K24" s="46">
         <v>96</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L24" s="46">
         <v>715</v>
       </c>
-      <c r="M23" s="46">
-        <v>6</v>
-      </c>
-      <c r="N23" s="46">
+      <c r="M24" s="46">
+        <v>6</v>
+      </c>
+      <c r="N24" s="46">
         <v>715</v>
       </c>
-      <c r="O23" s="46">
-        <v>1</v>
-      </c>
-      <c r="P23" s="46">
+      <c r="O24" s="46">
+        <v>1</v>
+      </c>
+      <c r="P24" s="46">
         <v>715</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FE79769-81E1-43B0-85C4-9E635A02D93A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Geldautomat_ATM.xlsx
+++ b/Geldautomat_ATM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{2F250386-BB25-41D1-9DD4-7139610505B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610E78B-A7E3-48FA-8F5D-B3AB54B21B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{50C9C147-E925-4C04-99B8-FFE8930A841B}"/>
   </bookViews>
@@ -53,7 +53,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Case DE'!$B$10:$AJ$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Case EN'!$B$10:$AJ$172</definedName>
     <definedName name="_fn">_xlfn.LAMBDA(_xlpm.s,_xlpm.z0,_xlpm.q0, _xlfn.LET(_xlpm.z, _xlfn.SORTBY(_xlpm.z0, _xlpm.z0, -1), _xlpm.q, _xlfn.SORTBY(_xlpm.q0, _xlpm.z0, -1), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.s, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0))))))</definedName>
-    <definedName name="_fx">_xlfn.LAMBDA(_xlpm.s,_xlpm.r, _xlfn.LET(_xlpm.z0, INDEX(Bankdata[], _xlpm.r, _xlfn.SEQUENCE(1, 7, 3, 2)), _xlpm.q0, INDEX(Bankdata[], 6, _xlfn.SEQUENCE(1, 7, 4, 2)), _xlpm.z, _xlfn.SORTBY(_xlpm.z0, _xlpm.z0, -1), _xlpm.q, _xlfn.SORTBY(_xlpm.q0, _xlpm.z0, -1), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.s, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0))))))</definedName>
+    <definedName name="_fx">_xlfn.LAMBDA(_xlpm.s,_xlpm.r, _xlfn.LET(_xlpm.z0, INDEX(Bankdata[], _xlpm.r, _xlfn.SEQUENCE(1, 7, 3, 2)), _xlpm.q0, INDEX(Bankdata[], _xlpm.r, _xlfn.SEQUENCE(1, 7, 4, 2)), _xlpm.z, _xlfn.SORTBY(_xlpm.z0, _xlpm.z0, -1), _xlpm.q, _xlfn.SORTBY(_xlpm.q0, _xlpm.z0, -1), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.s, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0))))))</definedName>
+    <definedName name="_nz0">'Case EN'!$E$28:$E$37</definedName>
+    <definedName name="_nz1">'Case EN'!$M$74:$M$83</definedName>
+    <definedName name="_nz2">'Case EN'!$Q$97:$Q$106</definedName>
     <definedName name="IQ_DNTM" hidden="1">700000</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
@@ -99,7 +102,6 @@
     <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="213">
   <si>
     <t>Geldautomat</t>
   </si>
@@ -787,9 +789,6 @@
   </si>
   <si>
     <t>Difficult</t>
-  </si>
-  <si>
-    <t>ExFunds: 517</t>
   </si>
 </sst>
 </file>
@@ -1407,8 +1406,28 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,32 +1459,12 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1473,10 +1472,33 @@
     <cellStyle name="Standard 2" xfId="2" xr:uid="{6CC379D2-14B7-4C93-94A1-97EC85242822}"/>
     <cellStyle name="Standard 3" xfId="3" xr:uid="{9714E0C0-752B-40FD-A907-D0A6FD90D953}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1489,6 +1511,19 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1501,6 +1536,19 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1513,6 +1561,19 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1525,6 +1586,19 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1537,6 +1611,19 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1549,6 +1636,19 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1557,6 +1657,217 @@
         <b val="0"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1618,25 +1929,190 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358363</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>219605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E196A83-41BE-9066-582C-A793D9563474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="8869680"/>
+          <a:ext cx="1600423" cy="3801005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>655319</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>153086</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC8F82B-6AB3-72F8-C731-59587A7248F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25214579" y="26647140"/>
+          <a:ext cx="1456107" cy="3634740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>291120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8483756C-EC56-003C-1E20-806FB8560A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22410420" y="20697480"/>
+          <a:ext cx="3025140" cy="3183600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F66CC031-4B0A-4FC8-B047-EE3DA19F5271}" name="Bankdata" displayName="Bankdata" ref="A3:P24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F66CC031-4B0A-4FC8-B047-EE3DA19F5271}" name="Bankdata" displayName="Bankdata" ref="A3:P25" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
   <tableColumns count="16">
-    <tableColumn id="16" xr3:uid="{33D82F51-93E5-4807-8415-325F2D43BDCB}" name="Level" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{C0E8DE7B-9A58-461E-8685-AFE0825CAC2F}" name="Bank" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{9F7F65BC-87FC-442F-BA9E-8BC85B82F3B7}" name="Schein 1" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A90DBCB2-E0B8-4402-9B69-B0B9A431DB0E}" name="Grenze Anzahl 1" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{97FD692F-C3FF-48A9-BD03-60CF1B115046}" name="Schein 2" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{F083594D-65A8-4632-BF63-FCF798E6F67E}" name="Grenze Anzahl 2" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{D7E6C52C-8BA7-4A6A-BABF-6A17A5B0CEF6}" name="Schein 3" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1478D8B4-AF84-4EBE-861E-EF6682552EAF}" name="Grenze Anzahl 3" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{7C489930-7F7E-4534-B292-46A51AF8435B}" name="Schein 4" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{65A8E445-F87F-48BD-B3CC-7591998EAEAE}" name="Grenze Anzahl 4" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{BE162AA3-7D14-4F49-A6F4-69AFCCA702FC}" name="Schein 5" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{7B39B4CD-B2E2-4C16-AF84-82862FD87CA5}" name="Grenze Anzahl 5" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{60EB1886-3957-44F4-9385-B6A906C3B4E7}" name="Schein 6" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{269A01C1-7FB0-4F05-A243-DD2DEC7FB8E0}" name="Grenze Anzahl 6" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{1F659CA1-44A7-451A-9BAB-ABEEDF46506E}" name="Schein 7" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{C76DF918-1D9A-464A-8CF5-CD8F653AECC7}" name="Grenze Anzahl 7" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{33D82F51-93E5-4807-8415-325F2D43BDCB}" name="Level" dataDxfId="32" totalsRowDxfId="31" totalsRowCellStyle="Standard 2"/>
+    <tableColumn id="1" xr3:uid="{C0E8DE7B-9A58-461E-8685-AFE0825CAC2F}" name="Bank" dataDxfId="30" totalsRowDxfId="29" totalsRowCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{9F7F65BC-87FC-442F-BA9E-8BC85B82F3B7}" name="Schein 1" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,C4:C24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A90DBCB2-E0B8-4402-9B69-B0B9A431DB0E}" name="Grenze Anzahl 1" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,D4:D24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{97FD692F-C3FF-48A9-BD03-60CF1B115046}" name="Schein 2" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,E4:E24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F083594D-65A8-4632-BF63-FCF798E6F67E}" name="Grenze Anzahl 2" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,F4:F24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D7E6C52C-8BA7-4A6A-BABF-6A17A5B0CEF6}" name="Schein 3" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,G4:G24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{1478D8B4-AF84-4EBE-861E-EF6682552EAF}" name="Grenze Anzahl 3" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,H4:H24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7C489930-7F7E-4534-B292-46A51AF8435B}" name="Schein 4" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,I4:I24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{65A8E445-F87F-48BD-B3CC-7591998EAEAE}" name="Grenze Anzahl 4" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,J4:J24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{BE162AA3-7D14-4F49-A6F4-69AFCCA702FC}" name="Schein 5" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,K4:K24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{7B39B4CD-B2E2-4C16-AF84-82862FD87CA5}" name="Grenze Anzahl 5" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,L4:L24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{60EB1886-3957-44F4-9385-B6A906C3B4E7}" name="Schein 6" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,M4:M24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{269A01C1-7FB0-4F05-A243-DD2DEC7FB8E0}" name="Grenze Anzahl 6" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,N4:N24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{1F659CA1-44A7-451A-9BAB-ABEEDF46506E}" name="Schein 7" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,O4:O24)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{C76DF918-1D9A-464A-8CF5-CD8F653AECC7}" name="Grenze Anzahl 7" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="1" totalsRowCellStyle="Standard 2">
+      <totalsRowFormula>SUBTOTAL(109,P4:P24)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1993,7 +2469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A81AA6B-8E40-4088-895F-9744BA54F3C6}">
   <dimension ref="A2:O164"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
   <cols>
@@ -2020,18 +2498,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="21.75" customHeight="1">
       <c r="B3" s="1"/>
@@ -2044,46 +2522,46 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
-      <c r="B4" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="B4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -2142,13 +2620,13 @@
         <f>IF(ISBLANK(E11),0,IF(E11=Answers!E11,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="12" spans="2:11" ht="64.5" customHeight="1">
       <c r="B12" s="19" t="s">
@@ -2165,13 +2643,13 @@
         <f>IF(ISBLANK(E12),0,IF(E12=Answers!E12,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1">
       <c r="B13" s="19" t="s">
@@ -2188,13 +2666,13 @@
         <f>IF(ISBLANK(E13),0,IF(E13=Answers!E13,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11" ht="33.75" customHeight="1">
       <c r="B14" s="19" t="s">
@@ -2211,13 +2689,13 @@
         <f>IF(ISBLANK(E14),0,IF(E14=Answers!E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="2:11" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -2251,12 +2729,12 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="71" t="str" cm="1">
+      <c r="I17" s="65" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
         <v>0/370</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
     </row>
     <row r="18" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B18" s="27" t="s">
@@ -2266,23 +2744,23 @@
         <v>13</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
@@ -2970,12 +3448,12 @@
       <c r="G70" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="68" t="s">
+      <c r="H70" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="70"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="64"/>
     </row>
     <row r="71" spans="2:11" ht="15" customHeight="1">
       <c r="B71" s="1"/>
@@ -3404,18 +3882,18 @@
       <c r="G93" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="68" t="s">
+      <c r="H93" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="68" t="s">
+      <c r="I93" s="63"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="64"/>
+      <c r="L93" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="M93" s="69"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="70"/>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="64"/>
     </row>
     <row r="94" spans="2:15" ht="15" customHeight="1">
       <c r="B94" s="1"/>
@@ -4842,18 +5320,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="G11:K11"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:O93"/>
     <mergeCell ref="I17:K20"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="G11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5187,8 +5665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192E9B44-6F22-445A-9A18-8C4FDE921BA0}">
   <dimension ref="A2:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
@@ -5219,34 +5697,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5261,80 +5739,80 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="71" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="71" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5349,18 +5827,18 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="2:11" ht="14.7" customHeight="1" thickBot="1">
       <c r="B9" s="5"/>
@@ -5399,24 +5877,26 @@
       <c r="D11" s="16">
         <v>10</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
       <c r="F11" s="18">
         <f>IF(ISBLANK(E11),0,IF(E11=Answers!E11,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="67" t="s">
+      <c r="K11" s="75" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5435,19 +5915,19 @@
         <f>IF(ISBLANK(E12),0,IF(E12=Answers!E12,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="61" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5461,24 +5941,26 @@
       <c r="D13" s="20">
         <v>20</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="21">
+        <v>10004117235</v>
+      </c>
       <c r="F13" s="18">
         <f>IF(ISBLANK(E13),0,IF(E13=Answers!E13,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="61" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5497,19 +5979,19 @@
         <f>IF(ISBLANK(E14),0,IF(E14=Answers!E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="61" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5546,12 +6028,12 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="71" t="str" cm="1">
+      <c r="I17" s="65" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
-        <v>145/370</v>
-      </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+        <v>180/370</v>
+      </c>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
     </row>
     <row r="18" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B18" s="27" t="s">
@@ -5561,23 +6043,23 @@
         <v>151</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
@@ -5683,6 +6165,10 @@
       </c>
       <c r="H28" s="34">
         <v>7</v>
+      </c>
+      <c r="I28" s="37">
+        <f>SUM(_nz0,_nz1,_nz2)</f>
+        <v>10004117235</v>
       </c>
       <c r="K28" s="3"/>
     </row>
@@ -6327,12 +6813,12 @@
       <c r="G70" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H70" s="68" t="s">
+      <c r="H70" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="70"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="64"/>
     </row>
     <row r="71" spans="2:16" ht="15" customHeight="1">
       <c r="B71" s="1"/>
@@ -6445,6 +6931,14 @@
         <f t="shared" si="2"/>
         <v>66272</v>
       </c>
+      <c r="M74" s="2">
+        <f>_xlfn.LET(_xlpm.z,_xlfn.SORTBY(H74:K74,H74:K74,-1),
+_xlpm.n_1,QUOTIENT(G74,INDEX(_xlpm.z,1,1)),
+_xlpm.n_2,QUOTIENT((G74-_xlpm.n_1*INDEX(_xlpm.z,1,1)),INDEX(_xlpm.z,1,2)),
+_xlpm.n_3,QUOTIENT((G74-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)),INDEX(_xlpm.z,1,3)),
+_xlpm.n_4,QUOTIENT((G74-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)-_xlpm.n_3*INDEX(_xlpm.z,1,3)),INDEX(_xlpm.z,1,4)),SUM(_xlpm.n_4))</f>
+        <v>10</v>
+      </c>
       <c r="P74" s="22"/>
     </row>
     <row r="75" spans="2:16" ht="25.5" customHeight="1">
@@ -6483,6 +6977,14 @@
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
+      <c r="M75" s="2">
+        <f t="shared" ref="M75:M83" si="3">_xlfn.LET(_xlpm.z,_xlfn.SORTBY(H75:K75,H75:K75,-1),
+_xlpm.n_1,QUOTIENT(G75,INDEX(_xlpm.z,1,1)),
+_xlpm.n_2,QUOTIENT((G75-_xlpm.n_1*INDEX(_xlpm.z,1,1)),INDEX(_xlpm.z,1,2)),
+_xlpm.n_3,QUOTIENT((G75-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)),INDEX(_xlpm.z,1,3)),
+_xlpm.n_4,QUOTIENT((G75-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)-_xlpm.n_3*INDEX(_xlpm.z,1,3)),INDEX(_xlpm.z,1,4)),SUM(_xlpm.n_4))</f>
+        <v>10</v>
+      </c>
       <c r="P75" s="22"/>
     </row>
     <row r="76" spans="2:16" ht="25.5" customHeight="1">
@@ -6521,6 +7023,10 @@
         <f t="shared" si="2"/>
         <v>1538461545</v>
       </c>
+      <c r="M76" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="P76" s="22"/>
     </row>
     <row r="77" spans="2:16" ht="25.5" customHeight="1">
@@ -6559,6 +7065,10 @@
         <f t="shared" si="2"/>
         <v>114992</v>
       </c>
+      <c r="M77" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
       <c r="P77" s="22"/>
     </row>
     <row r="78" spans="2:16" ht="25.5" customHeight="1">
@@ -6597,6 +7107,10 @@
         <f t="shared" si="2"/>
         <v>812</v>
       </c>
+      <c r="M78" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
       <c r="P78" s="22"/>
     </row>
     <row r="79" spans="2:16" ht="25.5" customHeight="1">
@@ -6635,6 +7149,10 @@
         <f t="shared" si="2"/>
         <v>7932</v>
       </c>
+      <c r="M79" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P79" s="22"/>
     </row>
     <row r="80" spans="2:16" ht="25.5" customHeight="1">
@@ -6673,6 +7191,10 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
+      <c r="M80" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="P80" s="22"/>
     </row>
     <row r="81" spans="2:16" ht="25.5" customHeight="1">
@@ -6711,6 +7233,14 @@
         <f t="shared" si="2"/>
         <v>223955</v>
       </c>
+      <c r="M81" s="2">
+        <f>_xlfn.LET(_xlpm.z,_xlfn.SORTBY(H81:K81,H81:K81,-1),
+_xlpm.n_1,QUOTIENT(G81,INDEX(_xlpm.z,1,1)),
+_xlpm.n_2,QUOTIENT((G81-_xlpm.n_1*INDEX(_xlpm.z,1,1)),INDEX(_xlpm.z,1,2)),
+_xlpm.n_3,QUOTIENT((G81-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)),INDEX(_xlpm.z,1,3)),
+_xlpm.n_4,QUOTIENT((G81-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)-_xlpm.n_3*INDEX(_xlpm.z,1,3)),INDEX(_xlpm.z,1,4)),SUM(_xlpm.n_3,_xlpm.n_4))</f>
+        <v>7</v>
+      </c>
       <c r="P81" s="22"/>
     </row>
     <row r="82" spans="2:16" ht="25.5" customHeight="1">
@@ -6748,6 +7278,10 @@
       <c r="L82" s="55">
         <f t="shared" si="2"/>
         <v>43</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P82" s="22"/>
     </row>
@@ -6790,6 +7324,10 @@
 _xlpm.n_3,QUOTIENT((G83-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)),INDEX(_xlpm.z,1,3)),
 _xlpm.n_4,QUOTIENT((G83-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)-_xlpm.n_3*INDEX(_xlpm.z,1,3)),INDEX(_xlpm.z,1,4)),SUM(_xlpm.n_1,_xlpm.n_2,_xlpm.n_3,_xlpm.n_4))</f>
         <v>48328</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="P83" s="22"/>
     </row>
@@ -6859,28 +7397,28 @@
       <c r="G93" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H93" s="68" t="s">
+      <c r="H93" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="I93" s="69" t="s">
+      <c r="I93" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="J93" s="69" t="s">
+      <c r="J93" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="K93" s="70" t="s">
+      <c r="K93" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="L93" s="68" t="s">
+      <c r="L93" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="M93" s="69" t="s">
+      <c r="M93" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="N93" s="69" t="s">
+      <c r="N93" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="O93" s="70" t="s">
+      <c r="O93" s="64" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6975,7 +7513,7 @@
         <v>20</v>
       </c>
       <c r="P96" s="2">
-        <f t="shared" ref="P96:P106" si="3">_xlfn.LET(_xlpm.z,_xlfn.SORTBY(H96:K96,H96:K96,-1),_xlpm.q,_xlfn.SORTBY(L96:O96,H96:K96,-1),
+        <f t="shared" ref="P96:P106" si="4">_xlfn.LET(_xlpm.z,_xlfn.SORTBY(H96:K96,H96:K96,-1),_xlpm.q,_xlfn.SORTBY(L96:O96,H96:K96,-1),
 _xlpm.n_1,MIN(QUOTIENT(G96,INDEX(_xlpm.z,1,1)),INDEX(_xlpm.q,1,1)),
 _xlpm.n_2,MIN(QUOTIENT((G96-_xlpm.n_1*INDEX(_xlpm.z,1,1)),INDEX(_xlpm.z,1,2)),INDEX(_xlpm.q,1,2)),
 _xlpm.n_3,MIN(QUOTIENT((G96-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)),INDEX(_xlpm.z,1,3)),INDEX(_xlpm.q,1,3)),
@@ -6983,7 +7521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="2:16" ht="25.5" customHeight="1">
+    <row r="97" spans="2:17" ht="25.5" customHeight="1">
       <c r="B97" s="36">
         <v>31</v>
       </c>
@@ -7028,11 +7566,19 @@
         <v>43310</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>834</v>
       </c>
-    </row>
-    <row r="98" spans="2:16" ht="25.5" customHeight="1">
+      <c r="Q97" s="2">
+        <f>_xlfn.LET(_xlpm.z,_xlfn.SORTBY(H97:K97,H97:K97,-1),_xlpm.q,_xlfn.SORTBY(L97:O97,H97:K97,-1),
+_xlpm.n_1,MIN(QUOTIENT(G97,INDEX(_xlpm.z,1,1)),INDEX(_xlpm.q,1,1)),
+_xlpm.n_2,MIN(QUOTIENT((G97-_xlpm.n_1*INDEX(_xlpm.z,1,1)),INDEX(_xlpm.z,1,2)),INDEX(_xlpm.q,1,2)),
+_xlpm.n_3,MIN(QUOTIENT((G97-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)),INDEX(_xlpm.z,1,3)),INDEX(_xlpm.q,1,3)),
+_xlpm.n_4,QUOTIENT((G97-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)-_xlpm.n_3*INDEX(_xlpm.z,1,3)),INDEX(_xlpm.z,1,4)),_xlpm.n_4)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" ht="25.5" customHeight="1">
       <c r="B98" s="36">
         <v>32</v>
       </c>
@@ -7077,11 +7623,19 @@
         <v>87349</v>
       </c>
       <c r="P98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="99" spans="2:16" ht="25.5" customHeight="1">
+      <c r="Q98" s="2">
+        <f t="shared" ref="Q98:Q106" si="5">_xlfn.LET(_xlpm.z,_xlfn.SORTBY(H98:K98,H98:K98,-1),_xlpm.q,_xlfn.SORTBY(L98:O98,H98:K98,-1),
+_xlpm.n_1,MIN(QUOTIENT(G98,INDEX(_xlpm.z,1,1)),INDEX(_xlpm.q,1,1)),
+_xlpm.n_2,MIN(QUOTIENT((G98-_xlpm.n_1*INDEX(_xlpm.z,1,1)),INDEX(_xlpm.z,1,2)),INDEX(_xlpm.q,1,2)),
+_xlpm.n_3,MIN(QUOTIENT((G98-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)),INDEX(_xlpm.z,1,3)),INDEX(_xlpm.q,1,3)),
+_xlpm.n_4,QUOTIENT((G98-_xlpm.n_1*INDEX(_xlpm.z,1,1)-_xlpm.n_2*INDEX(_xlpm.z,1,2)-_xlpm.n_3*INDEX(_xlpm.z,1,3)),INDEX(_xlpm.z,1,4)),_xlpm.n_4)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" ht="25.5" customHeight="1">
       <c r="B99" s="36">
         <v>33</v>
       </c>
@@ -7126,11 +7680,15 @@
         <v>33877</v>
       </c>
       <c r="P99" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19590</v>
       </c>
-    </row>
-    <row r="100" spans="2:16" ht="25.5" customHeight="1">
+      <c r="Q99" s="2">
+        <f t="shared" si="5"/>
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" ht="25.5" customHeight="1">
       <c r="B100" s="36">
         <v>34</v>
       </c>
@@ -7175,11 +7733,15 @@
         <v>17080</v>
       </c>
       <c r="P100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9014</v>
       </c>
-    </row>
-    <row r="101" spans="2:16" ht="25.5" customHeight="1">
+      <c r="Q100" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" ht="25.5" customHeight="1">
       <c r="B101" s="36">
         <v>35</v>
       </c>
@@ -7224,11 +7786,15 @@
         <v>29730</v>
       </c>
       <c r="P101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>812</v>
       </c>
-    </row>
-    <row r="102" spans="2:16" ht="25.5" customHeight="1">
+      <c r="Q101" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" ht="25.5" customHeight="1">
       <c r="B102" s="36">
         <v>36</v>
       </c>
@@ -7273,11 +7839,15 @@
         <v>435</v>
       </c>
       <c r="P102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7932</v>
       </c>
-    </row>
-    <row r="103" spans="2:16" ht="25.5" customHeight="1">
+      <c r="Q102" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" ht="25.5" customHeight="1">
       <c r="B103" s="36">
         <v>37</v>
       </c>
@@ -7322,11 +7892,15 @@
         <v>64319</v>
       </c>
       <c r="P103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="2:16" ht="25.5" customHeight="1">
+      <c r="Q103" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" ht="25.5" customHeight="1">
       <c r="B104" s="36">
         <v>38</v>
       </c>
@@ -7371,11 +7945,15 @@
         <v>48820</v>
       </c>
       <c r="P104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>805</v>
       </c>
-    </row>
-    <row r="105" spans="2:16" ht="25.5" customHeight="1">
+      <c r="Q104" s="2">
+        <f t="shared" si="5"/>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" ht="25.5" customHeight="1">
       <c r="B105" s="36">
         <v>39</v>
       </c>
@@ -7420,11 +7998,15 @@
         <v>86496</v>
       </c>
       <c r="P105" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="106" spans="2:16" ht="25.5" customHeight="1">
+      <c r="Q105" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" ht="25.5" customHeight="1">
       <c r="B106" s="36">
         <v>40</v>
       </c>
@@ -7469,11 +8051,15 @@
         <v>34848</v>
       </c>
       <c r="P106" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48328</v>
       </c>
-    </row>
-    <row r="107" spans="2:16" ht="15" customHeight="1">
+      <c r="Q106" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" ht="15" customHeight="1">
       <c r="H107" s="37"/>
       <c r="I107" s="37"/>
       <c r="J107" s="49"/>
@@ -7483,8 +8069,8 @@
       <c r="N107" s="22"/>
       <c r="O107" s="22"/>
     </row>
-    <row r="108" spans="2:16" ht="15" customHeight="1" thickBot="1"/>
-    <row r="109" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="108" spans="2:17" ht="15" customHeight="1" thickBot="1"/>
+    <row r="109" spans="2:17" ht="24.75" customHeight="1" thickBot="1">
       <c r="B109" s="40" t="s">
         <v>27</v>
       </c>
@@ -7493,16 +8079,16 @@
       </c>
       <c r="D109" s="29"/>
     </row>
-    <row r="110" spans="2:16" ht="14.7" customHeight="1">
+    <row r="110" spans="2:17" ht="14.7" customHeight="1">
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="2:16" ht="14.7" customHeight="1">
+    <row r="111" spans="2:17" ht="14.7" customHeight="1">
       <c r="B111" s="5" t="s">
         <v>174</v>
       </c>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="2:16" ht="14.7" customHeight="1">
+    <row r="112" spans="2:17" ht="14.7" customHeight="1">
       <c r="B112" s="5" t="s">
         <v>211</v>
       </c>
@@ -7599,7 +8185,7 @@
       </c>
       <c r="L120" s="2">
         <f>SMALL(K123:K132,K121)</f>
-        <v>517</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="121" spans="2:17" ht="15" customHeight="1">
@@ -7624,15 +8210,15 @@
       </c>
       <c r="N121" s="2" cm="1">
         <f t="array" ref="N121">INDEX(K123:K132,L121)</f>
-        <v>517</v>
+        <v>1128</v>
       </c>
       <c r="O121" s="2" t="str">
         <f>M121&amp;": "&amp;N121</f>
-        <v>ExFunds: 517</v>
+        <v>ExFunds: 1128</v>
       </c>
       <c r="Q121" s="2" t="str">
         <f>O121</f>
-        <v>ExFunds: 517</v>
+        <v>ExFunds: 1128</v>
       </c>
     </row>
     <row r="122" spans="2:17" ht="25.5" customHeight="1">
@@ -7661,9 +8247,9 @@
       <c r="J122" s="1">
         <v>1</v>
       </c>
-      <c r="K122" s="76" cm="1">
+      <c r="K122" s="59" cm="1">
         <f t="array" ref="K122">INDEX(_fx($J$121,J122),2)</f>
-        <v>13694</v>
+        <v>700</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>41</v>
@@ -7702,11 +8288,11 @@
       <c r="J123" s="1">
         <v>2</v>
       </c>
-      <c r="K123" s="76" cm="1">
+      <c r="K123" s="59" cm="1">
         <f t="array" ref="K123">INDEX(_fx($J$121,J123),2)</f>
-        <v>177</v>
-      </c>
-      <c r="L123" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="L123" s="60" t="s">
         <v>43</v>
       </c>
       <c r="P123" s="2">
@@ -7727,11 +8313,11 @@
         <v>5</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="F124" s="18">
         <f>IF(ISBLANK(E124),0,IF(E124=Answers!E124,1,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G124" s="34">
         <v>12345678</v>
@@ -7742,18 +8328,18 @@
       <c r="J124" s="1">
         <v>3</v>
       </c>
-      <c r="K124" s="76" cm="1">
+      <c r="K124" s="59" cm="1">
         <f t="array" ref="K124">INDEX(_fx($J$121,J124),2)</f>
         <v>263</v>
       </c>
-      <c r="L124" s="77" t="s">
+      <c r="L124" s="60" t="s">
         <v>44</v>
       </c>
       <c r="P124" s="2">
         <v>3</v>
       </c>
       <c r="Q124" s="2" t="str">
-        <v>ExFunds: 517</v>
+        <v>ExFunds: 1128</v>
       </c>
     </row>
     <row r="125" spans="2:17" ht="25.5" customHeight="1">
@@ -7782,11 +8368,11 @@
       <c r="J125" s="1">
         <v>4</v>
       </c>
-      <c r="K125" s="76" cm="1">
+      <c r="K125" s="59" cm="1">
         <f t="array" ref="K125">INDEX(_fx($J$121,J125),2)</f>
-        <v>517</v>
-      </c>
-      <c r="L125" s="77" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L125" s="60" t="s">
         <v>45</v>
       </c>
       <c r="P125" s="2">
@@ -7822,11 +8408,11 @@
       <c r="J126" s="1">
         <v>5</v>
       </c>
-      <c r="K126" s="76" cm="1">
+      <c r="K126" s="59" cm="1">
         <f t="array" ref="K126">INDEX(_fx($J$121,J126),2)</f>
         <v>178</v>
       </c>
-      <c r="L126" s="77" t="s">
+      <c r="L126" s="60" t="s">
         <v>46</v>
       </c>
       <c r="P126" s="2">
@@ -7862,11 +8448,11 @@
       <c r="J127" s="1">
         <v>6</v>
       </c>
-      <c r="K127" s="76" cm="1">
+      <c r="K127" s="59" cm="1">
         <f t="array" ref="K127">INDEX(_fx($J$121,J127),2)</f>
         <v>182</v>
       </c>
-      <c r="L127" s="77" t="s">
+      <c r="L127" s="60" t="s">
         <v>47</v>
       </c>
       <c r="P127" s="2">
@@ -7902,11 +8488,11 @@
       <c r="J128" s="1">
         <v>7</v>
       </c>
-      <c r="K128" s="76" cm="1">
+      <c r="K128" s="59" cm="1">
         <f t="array" ref="K128">INDEX(_fx($J$121,J128),2)</f>
         <v>256</v>
       </c>
-      <c r="L128" s="77" t="s">
+      <c r="L128" s="60" t="s">
         <v>48</v>
       </c>
       <c r="P128" s="2">
@@ -7942,11 +8528,11 @@
       <c r="J129" s="1">
         <v>8</v>
       </c>
-      <c r="K129" s="76" cm="1">
+      <c r="K129" s="59" cm="1">
         <f t="array" ref="K129">INDEX(_fx($J$121,J129),2)</f>
         <v>327</v>
       </c>
-      <c r="L129" s="77" t="s">
+      <c r="L129" s="60" t="s">
         <v>49</v>
       </c>
       <c r="P129" s="2">
@@ -7982,11 +8568,11 @@
       <c r="J130" s="1">
         <v>9</v>
       </c>
-      <c r="K130" s="76" cm="1">
+      <c r="K130" s="59" cm="1">
         <f t="array" ref="K130">INDEX(_fx($J$121,J130),2)</f>
         <v>184</v>
       </c>
-      <c r="L130" s="77" t="s">
+      <c r="L130" s="60" t="s">
         <v>50</v>
       </c>
       <c r="P130" s="2">
@@ -8022,11 +8608,11 @@
       <c r="J131" s="1">
         <v>10</v>
       </c>
-      <c r="K131" s="76" cm="1">
+      <c r="K131" s="59" cm="1">
         <f t="array" ref="K131">INDEX(_fx($J$121,J131),2)</f>
         <v>253</v>
       </c>
-      <c r="L131" s="77" t="s">
+      <c r="L131" s="60" t="s">
         <v>51</v>
       </c>
       <c r="P131" s="2">
@@ -8042,11 +8628,11 @@
       <c r="J132" s="1">
         <v>11</v>
       </c>
-      <c r="K132" s="76" cm="1">
+      <c r="K132" s="59" cm="1">
         <f t="array" ref="K132">INDEX(_fx($J$121,J132),2)</f>
         <v>184</v>
       </c>
-      <c r="L132" s="77" t="s">
+      <c r="L132" s="60" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8056,7 +8642,7 @@
       <c r="J133" s="1">
         <v>12</v>
       </c>
-      <c r="K133" s="76" cm="1">
+      <c r="K133" s="59" cm="1">
         <f t="array" ref="K133">INDEX(_fx($J$121,J133),2)</f>
         <v>238</v>
       </c>
@@ -8070,7 +8656,7 @@
       <c r="J134" s="1">
         <v>13</v>
       </c>
-      <c r="K134" s="76" cm="1">
+      <c r="K134" s="59" cm="1">
         <f t="array" ref="K134">INDEX(_fx($J$121,J134),2)</f>
         <v>116</v>
       </c>
@@ -8084,7 +8670,7 @@
       <c r="J135" s="1">
         <v>14</v>
       </c>
-      <c r="K135" s="76" cm="1">
+      <c r="K135" s="59" cm="1">
         <f t="array" ref="K135">INDEX(_fx($J$121,J135),2)</f>
         <v>53</v>
       </c>
@@ -8098,7 +8684,7 @@
       <c r="J136" s="1">
         <v>15</v>
       </c>
-      <c r="K136" s="76" cm="1">
+      <c r="K136" s="59" cm="1">
         <f t="array" ref="K136">INDEX(_fx($J$121,J136),2)</f>
         <v>50</v>
       </c>
@@ -8112,7 +8698,7 @@
       <c r="J137" s="1">
         <v>16</v>
       </c>
-      <c r="K137" s="76" cm="1">
+      <c r="K137" s="59" cm="1">
         <f t="array" ref="K137">INDEX(_fx($J$121,J137),2)</f>
         <v>39</v>
       </c>
@@ -8126,7 +8712,7 @@
       <c r="J138" s="1">
         <v>17</v>
       </c>
-      <c r="K138" s="76" cm="1">
+      <c r="K138" s="59" cm="1">
         <f t="array" ref="K138">INDEX(_fx($J$121,J138),2)</f>
         <v>55</v>
       </c>
@@ -8138,7 +8724,7 @@
       <c r="J139" s="1">
         <v>18</v>
       </c>
-      <c r="K139" s="76" cm="1">
+      <c r="K139" s="59" cm="1">
         <f t="array" ref="K139">INDEX(_fx($J$121,J139),2)</f>
         <v>66</v>
       </c>
@@ -8157,7 +8743,7 @@
       <c r="J140" s="1">
         <v>19</v>
       </c>
-      <c r="K140" s="76" cm="1">
+      <c r="K140" s="59" cm="1">
         <f t="array" ref="K140">INDEX(_fx($J$121,J140),2)</f>
         <v>54</v>
       </c>
@@ -8166,13 +8752,13 @@
       </c>
     </row>
     <row r="141" spans="2:17" ht="24.75" customHeight="1">
-      <c r="B141" s="74"/>
-      <c r="C141" s="75"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="58"/>
       <c r="D141" s="29"/>
       <c r="J141" s="1">
         <v>20</v>
       </c>
-      <c r="K141" s="76" cm="1">
+      <c r="K141" s="59" cm="1">
         <f t="array" ref="K141">INDEX(_fx($J$121,J141),2)</f>
         <v>52</v>
       </c>
@@ -8184,7 +8770,7 @@
       <c r="J142" s="2">
         <v>21</v>
       </c>
-      <c r="K142" s="76" cm="1">
+      <c r="K142" s="59" cm="1">
         <f t="array" ref="K142">INDEX(_fx($J$121,J142),2)</f>
         <v>76</v>
       </c>
@@ -8791,13 +9377,19 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="H93:K93"/>
   </mergeCells>
+  <conditionalFormatting sqref="H72:K83">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{1226335E-A869-4E62-B276-C42F396F9519}">
+          <x14:cfRule type="iconSet" priority="18" id="{1226335E-A869-4E62-B276-C42F396F9519}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8816,7 +9408,7 @@
           <xm:sqref>F11:F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{647D597F-1CE6-41F8-BD1A-06DB16B73EE5}">
+          <x14:cfRule type="iconSet" priority="21" id="{647D597F-1CE6-41F8-BD1A-06DB16B73EE5}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8832,7 +9424,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="iconSet" priority="21" id="{EBFB5E94-71B2-4498-953E-465FEDE041CA}">
+          <x14:cfRule type="iconSet" priority="22" id="{EBFB5E94-71B2-4498-953E-465FEDE041CA}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8851,7 +9443,7 @@
           <xm:sqref>F12:F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{3CA6AE40-52BC-4074-B0C5-DE246F88613F}">
+          <x14:cfRule type="iconSet" priority="17" id="{3CA6AE40-52BC-4074-B0C5-DE246F88613F}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8870,7 +9462,7 @@
           <xm:sqref>F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{3706B31E-BB8B-4735-A454-C6964F37B3D4}">
+          <x14:cfRule type="iconSet" priority="16" id="{3706B31E-BB8B-4735-A454-C6964F37B3D4}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8889,7 +9481,7 @@
           <xm:sqref>F28:F37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{6EEED84F-2093-412F-8D35-2473EEE06F4E}">
+          <x14:cfRule type="iconSet" priority="15" id="{6EEED84F-2093-412F-8D35-2473EEE06F4E}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8908,7 +9500,7 @@
           <xm:sqref>F49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{4F8FD21A-F5B9-432F-8E11-5A0AB613FB7D}">
+          <x14:cfRule type="iconSet" priority="14" id="{4F8FD21A-F5B9-432F-8E11-5A0AB613FB7D}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8927,7 +9519,7 @@
           <xm:sqref>F51:F60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{79B72D7A-41C1-4C4C-B5CE-15813223E51A}">
+          <x14:cfRule type="iconSet" priority="2" id="{79B72D7A-41C1-4C4C-B5CE-15813223E51A}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8946,7 +9538,7 @@
           <xm:sqref>F72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{D5DFEEDA-A656-4C38-91F4-BF837DFE19F1}">
+          <x14:cfRule type="iconSet" priority="12" id="{D5DFEEDA-A656-4C38-91F4-BF837DFE19F1}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8965,7 +9557,7 @@
           <xm:sqref>F74:F83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{F2387D15-1240-4689-98AD-4F5DD7F6AF09}">
+          <x14:cfRule type="iconSet" priority="3" id="{F2387D15-1240-4689-98AD-4F5DD7F6AF09}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8984,7 +9576,7 @@
           <xm:sqref>F95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{C57C6CE9-48E2-4487-B25B-2521FE715A7B}">
+          <x14:cfRule type="iconSet" priority="10" id="{C57C6CE9-48E2-4487-B25B-2521FE715A7B}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9003,7 +9595,7 @@
           <xm:sqref>F97:F106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{597FF0A4-0A09-4219-A8D9-35B6AC510784}">
+          <x14:cfRule type="iconSet" priority="19" id="{597FF0A4-0A09-4219-A8D9-35B6AC510784}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9019,7 +9611,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="iconSet" priority="19" id="{AEB99B8A-5133-43D5-9E97-1057E594BC2D}">
+          <x14:cfRule type="iconSet" priority="20" id="{AEB99B8A-5133-43D5-9E97-1057E594BC2D}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9038,7 +9630,7 @@
           <xm:sqref>F107:F118 F121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{890CACF9-0AB6-4B05-9DA9-2F928EE6CD90}">
+          <x14:cfRule type="iconSet" priority="4" id="{890CACF9-0AB6-4B05-9DA9-2F928EE6CD90}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9057,7 +9649,7 @@
           <xm:sqref>F120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{0C854B5A-7CB4-4F7B-B6FC-23A5DF396A1F}">
+          <x14:cfRule type="iconSet" priority="8" id="{0C854B5A-7CB4-4F7B-B6FC-23A5DF396A1F}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9076,7 +9668,7 @@
           <xm:sqref>F122:F131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{141B1AC8-9701-483A-9643-95CA4FFE8219}">
+          <x14:cfRule type="iconSet" priority="5" id="{141B1AC8-9701-483A-9643-95CA4FFE8219}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9095,7 +9687,7 @@
           <xm:sqref>F150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{B76F18AD-BBFF-4304-A5D5-4FD56F884141}">
+          <x14:cfRule type="iconSet" priority="6" id="{B76F18AD-BBFF-4304-A5D5-4FD56F884141}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9123,7 +9715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF27E72-C0A8-423E-B550-B7E133FBE934}">
   <dimension ref="A2:O164"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
@@ -9152,18 +9744,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="21.75" customHeight="1">
       <c r="B3" s="1"/>
@@ -9176,46 +9768,46 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
-      <c r="B4" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="B4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -9273,13 +9865,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
     </row>
     <row r="12" spans="2:11" ht="64.5" customHeight="1">
       <c r="B12" s="19" t="s">
@@ -9295,13 +9887,13 @@
         <v>2204096</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1">
       <c r="B13" s="19" t="s">
@@ -9317,13 +9909,13 @@
         <v>10004117235</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11" ht="33.75" customHeight="1">
       <c r="B14" s="19" t="s">
@@ -9339,13 +9931,13 @@
         <v>949</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="2:11" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -10039,12 +10631,12 @@
       <c r="G70" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="68" t="s">
+      <c r="H70" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="70"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="64"/>
     </row>
     <row r="71" spans="2:11" ht="15" customHeight="1">
       <c r="B71" s="1"/>
@@ -10460,18 +11052,18 @@
       <c r="G93" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="68" t="s">
+      <c r="H93" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="68" t="s">
+      <c r="I93" s="63"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="64"/>
+      <c r="L93" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="M93" s="69"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="70"/>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="64"/>
     </row>
     <row r="94" spans="2:15" ht="15" customHeight="1">
       <c r="B94" s="1"/>
@@ -11848,17 +12440,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:O93"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:O93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
@@ -12347,17 +12939,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC71D1EF-0DAC-4349-8885-410BD14E743A}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A2:X24"/>
+  <dimension ref="A2:X25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B14"/>
+    <sheetView topLeftCell="L4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="25.8"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="45" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="45" bestFit="1" customWidth="1"/>
@@ -12484,7 +13076,7 @@
         <v>131</v>
       </c>
       <c r="R3" s="45">
-        <v>2203</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -12537,23 +13129,23 @@
         <v>100</v>
       </c>
       <c r="R4" s="45" cm="1">
-        <f t="array" ref="R4:X4">INDEX(Bankdata[],6,_xlfn.SEQUENCE(1,7,3,2))</f>
-        <v>75462</v>
+        <f t="array" ref="R4:X4">INDEX(Bankdata[],4,_xlfn.SEQUENCE(1,7,3,2))</f>
+        <v>25398</v>
       </c>
       <c r="S4" s="45">
-        <v>24310</v>
+        <v>5414</v>
       </c>
       <c r="T4" s="45">
-        <v>4822</v>
+        <v>4484</v>
       </c>
       <c r="U4" s="45">
-        <v>2724</v>
+        <v>3238</v>
       </c>
       <c r="V4" s="45">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="W4" s="45">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="X4" s="45">
         <v>1</v>
@@ -12609,26 +13201,26 @@
         <v>100</v>
       </c>
       <c r="R5" s="45" cm="1">
-        <f t="array" ref="R5:X5">INDEX(Bankdata[],6,_xlfn.SEQUENCE(1,7,4,2))</f>
-        <v>972</v>
+        <f t="array" ref="R5:X5">INDEX(Bankdata[],4,_xlfn.SEQUENCE(1,7,4,2))</f>
+        <v>321</v>
       </c>
       <c r="S5" s="45">
-        <v>2785</v>
+        <v>3619</v>
       </c>
       <c r="T5" s="45">
-        <v>1801</v>
+        <v>1231</v>
       </c>
       <c r="U5" s="45">
-        <v>1256</v>
+        <v>673</v>
       </c>
       <c r="V5" s="45">
-        <v>3768</v>
+        <v>2322</v>
       </c>
       <c r="W5" s="45">
-        <v>1794</v>
+        <v>3235</v>
       </c>
       <c r="X5" s="45">
-        <v>1318</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -12682,19 +13274,19 @@
       </c>
       <c r="R6" s="45" cm="1">
         <f t="array" ref="R6:X6">_xlfn.LET(_xlpm.z,_xlfn.SORTBY(_xlfn.ANCHORARRAY(R4),_xlfn.ANCHORARRAY(R4),-1),_xlpm.q,_xlfn.SORTBY(_xlfn.ANCHORARRAY(R5),_xlfn.ANCHORARRAY(R4),-1),
-_xlfn.SCAN(2203,_xlfn.SEQUENCE(1,7),
+_xlfn.SCAN(R3,_xlfn.SEQUENCE(1,7),
 _xlfn.LAMBDA(_xlpm.a,_xlpm.v,
 _xlfn.LET(_xlpm.tmp,_xlpm.a-INDEX(_xlpm.z,1,_xlpm.v)*MIN(QUOTIENT(_xlpm.a,INDEX(_xlpm.z,1,_xlpm.v)),INDEX(_xlpm.q,1,_xlpm.v)),_xlpm.tmp))))</f>
-        <v>2203</v>
+        <v>4192920</v>
       </c>
       <c r="S6" s="45">
-        <v>2203</v>
+        <v>2484</v>
       </c>
       <c r="T6" s="45">
-        <v>2203</v>
+        <v>2484</v>
       </c>
       <c r="U6" s="45">
-        <v>2203</v>
+        <v>2484</v>
       </c>
       <c r="V6" s="45">
         <v>14</v>
@@ -12806,7 +13398,7 @@
         <v>368</v>
       </c>
       <c r="R8" s="45" cm="1">
-        <f t="array" ref="R8:R9">_xlfn.LET(_xlpm.z, _xlfn.SORTBY(_xlfn.ANCHORARRAY(R4),_xlfn.ANCHORARRAY( R4), -1), _xlpm.q, _xlfn.SORTBY(_xlfn.ANCHORARRAY(R5),_xlfn.ANCHORARRAY( R4), -1), _xlfn.REDUCE(_xlfn.VSTACK(2203, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0)))))</f>
+        <f t="array" ref="R8:R9">_xlfn.LET(_xlpm.z, _xlfn.SORTBY(_xlfn.ANCHORARRAY(R4),_xlfn.ANCHORARRAY( R4), -1), _xlpm.q, _xlfn.SORTBY(_xlfn.ANCHORARRAY(R5),_xlfn.ANCHORARRAY( R4), -1), _xlfn.REDUCE(_xlfn.VSTACK(R3, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -12860,7 +13452,7 @@
         <v>1318</v>
       </c>
       <c r="R9" s="45">
-        <v>25</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -12963,7 +13555,7 @@
         <v>687</v>
       </c>
       <c r="R11" s="45" cm="1">
-        <f t="array" ref="R11:R12">_xlfn.LAMBDA(_xlpm.s,_xlpm.r, _xlfn.LET(_xlpm.z0, INDEX(Bankdata[], _xlpm.r, _xlfn.SEQUENCE(1, 7, 3, 2)), _xlpm.q0, INDEX(Bankdata[], 6, _xlfn.SEQUENCE(1, 7, 4, 2)), _xlpm.z, _xlfn.SORTBY(_xlpm.z0, _xlpm.z0, -1), _xlpm.q, _xlfn.SORTBY(_xlpm.q0, _xlpm.z0, -1), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.s, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0))))))(2203, 6)</f>
+        <f t="array" ref="R11:R12">_xlfn.LAMBDA(_xlpm.s,_xlpm.r, _xlfn.LET(_xlpm.z0, INDEX(Bankdata[], _xlpm.r, _xlfn.SEQUENCE(1, 7, 3, 2)), _xlpm.q0, INDEX(Bankdata[], _xlpm.r, _xlfn.SEQUENCE(1, 7, 4, 2)), _xlpm.z, _xlfn.SORTBY(_xlpm.z0, _xlpm.z0, -1), _xlpm.q, _xlfn.SORTBY(_xlpm.q0, _xlpm.z0, -1), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.s, 0, 0, 0), _xlfn.SEQUENCE(1, 7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.rs, INDEX(_xlpm.a, 1, 1), _xlpm.n0, INDEX(_xlpm.a, 2, 1), _xlpm.dv, INDEX(_xlpm.z, 1, _xlpm.v), _xlpm.mx, INDEX(_xlpm.q, 1, _xlpm.v), _xlpm.n, MIN(QUOTIENT(_xlpm.rs, _xlpm.dv), _xlpm.mx), _xlpm.acc, _xlpm.rs - _xlpm.dv * _xlpm.n, _xlfn.VSTACK(_xlpm.acc, _xlpm.n + _xlpm.n0))))))(R3, 4)</f>
         <v>0</v>
       </c>
     </row>
@@ -13017,7 +13609,7 @@
         <v>3349</v>
       </c>
       <c r="R12" s="45">
-        <v>25</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -13120,7 +13712,7 @@
         <v>3268</v>
       </c>
       <c r="R14" s="45" cm="1">
-        <f t="array" ref="R14:R15">_fx(2203,6)</f>
+        <f t="array" ref="R14:R15">_fx(R3,4)</f>
         <v>0</v>
       </c>
     </row>
@@ -13174,7 +13766,7 @@
         <v>1626</v>
       </c>
       <c r="R15" s="45">
-        <v>25</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -13625,6 +14217,64 @@
       </c>
       <c r="P24" s="46">
         <v>715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="C25" s="46">
+        <f t="shared" ref="C25:P25" si="0">SUBTOTAL(109,C4:C24)</f>
+        <v>5940107</v>
+      </c>
+      <c r="D25" s="46">
+        <f t="shared" si="0"/>
+        <v>975608</v>
+      </c>
+      <c r="E25" s="46">
+        <f t="shared" si="0"/>
+        <v>833618</v>
+      </c>
+      <c r="F25" s="46">
+        <f t="shared" si="0"/>
+        <v>344711</v>
+      </c>
+      <c r="G25" s="46">
+        <f t="shared" si="0"/>
+        <v>153413</v>
+      </c>
+      <c r="H25" s="46">
+        <f t="shared" si="0"/>
+        <v>504185</v>
+      </c>
+      <c r="I25" s="46">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="J25" s="46">
+        <f t="shared" si="0"/>
+        <v>551754</v>
+      </c>
+      <c r="K25" s="46">
+        <f t="shared" si="0"/>
+        <v>4522</v>
+      </c>
+      <c r="L25" s="46">
+        <f t="shared" si="0"/>
+        <v>47757</v>
+      </c>
+      <c r="M25" s="46">
+        <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+      <c r="N25" s="46">
+        <f t="shared" si="0"/>
+        <v>39430</v>
+      </c>
+      <c r="O25" s="46">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="P25" s="46">
+        <f t="shared" si="0"/>
+        <v>40821</v>
       </c>
     </row>
   </sheetData>

--- a/Geldautomat_ATM.xlsx
+++ b/Geldautomat_ATM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610E78B-A7E3-48FA-8F5D-B3AB54B21B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295CEDCD-099E-4251-998A-E66A3EEAAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{50C9C147-E925-4C04-99B8-FFE8930A841B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50C9C147-E925-4C04-99B8-FFE8930A841B}"/>
   </bookViews>
   <sheets>
     <sheet name="Case DE" sheetId="4" r:id="rId1"/>
@@ -57,6 +57,7 @@
     <definedName name="_nz0">'Case EN'!$E$28:$E$37</definedName>
     <definedName name="_nz1">'Case EN'!$M$74:$M$83</definedName>
     <definedName name="_nz2">'Case EN'!$Q$97:$Q$106</definedName>
+    <definedName name="_tPivot">Banks!#REF!</definedName>
     <definedName name="IQ_DNTM" hidden="1">700000</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="215">
   <si>
     <t>Geldautomat</t>
   </si>
@@ -789,6 +790,12 @@
   </si>
   <si>
     <t>Difficult</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Quant</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1265,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1414,20 +1421,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1458,6 +1454,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
@@ -2118,6 +2126,102 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49D4DA3F-2230-4C4C-BED6-889E08B5D9CF}" name="_tBank" displayName="_tBank" ref="C28:E98" totalsRowShown="0" headerRowCellStyle="Standard 2" dataCellStyle="Standard 2">
+  <autoFilter ref="C28:E98" xr:uid="{49D4DA3F-2230-4C4C-BED6-889E08B5D9CF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9CA12679-9DBA-43C0-8EFE-07F07C9489C5}" name="Bank" dataCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{CFE0F08D-3734-4924-B4BE-C38CA8C15771}" name="Note" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{16048123-E940-4294-964A-38F9FAAE3834}" name="Quant" dataCellStyle="Standard 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{900FBF04-F0DD-47D8-8636-4AEC243A8A40}" name="_tTest" displayName="_tTest" ref="G28:I35" totalsRowShown="0" headerRowCellStyle="Standard 2" dataCellStyle="Standard 2">
+  <autoFilter ref="G28:I35" xr:uid="{900FBF04-F0DD-47D8-8636-4AEC243A8A40}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0D1C70D3-1213-46EE-BFFE-4AE81DA0C5A6}" name="Bank" dataCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{34EA618C-7022-4777-8007-D105E7C810A5}" name="Note" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{0842C844-3CDC-4157-83EC-E3BF52C4C2EA}" name="Quant" dataCellStyle="Standard 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1E47546C-890C-46DA-8812-A7C1C26BD597}" name="_tP" displayName="_tP" ref="K28:M35" totalsRowShown="0" headerRowCellStyle="Standard 2" dataCellStyle="Standard 2">
+  <autoFilter ref="K28:M35" xr:uid="{1E47546C-890C-46DA-8812-A7C1C26BD597}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{892693C4-5AF4-404D-BC49-A2DCA887F4E3}" name="Bank" dataCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{3F1B599B-00F6-4875-BE08-73F59BCF3D8C}" name="Note" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{0F5E782B-F78C-42C4-9BED-A930A581A32C}" name="Quant" dataCellStyle="Standard 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AB927C32-0C7D-4A02-B918-8931B88666E6}" name="Table7" displayName="Table7" ref="O28:Q35" totalsRowShown="0" headerRowCellStyle="Standard 2" dataCellStyle="Standard 2">
+  <autoFilter ref="O28:Q35" xr:uid="{AB927C32-0C7D-4A02-B918-8931B88666E6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D02A7439-BD16-41BE-BCF5-6CC4A566462B}" name="Bank" dataCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{95357D46-10CE-4368-9B0F-B92042E3AB0B}" name="Note" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{7E6F2221-29C9-4F7A-B568-DD0326BE1603}" name="Quant" dataCellStyle="Standard 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9218B3CE-8543-4018-95C7-C99A92DDB5B2}" name="_tS" displayName="_tS" ref="O37:Q44" totalsRowShown="0" headerRowCellStyle="Standard 2" dataCellStyle="Standard 2">
+  <autoFilter ref="O37:Q44" xr:uid="{9218B3CE-8543-4018-95C7-C99A92DDB5B2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DBBD0F1A-B87A-4C79-8E2E-8400432A7C5F}" name="Bank" dataCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{40CAF99F-86CA-4D7B-8FAE-272DDD6DD8A1}" name="Note" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{E1D2E569-0943-49F3-802F-366BEDCB6321}" name="Quant" dataCellStyle="Standard 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAC2B38D-EF66-45E1-BB0F-D634AC9644A3}" name="_tE" displayName="_tE" ref="K37:M44" totalsRowShown="0" headerRowCellStyle="Standard 2" dataCellStyle="Standard 2">
+  <autoFilter ref="K37:M44" xr:uid="{FAC2B38D-EF66-45E1-BB0F-D634AC9644A3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{72B0E0F8-3F93-4F91-867D-27F5A135EA5F}" name="Bank" dataCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{4488294F-FF23-47F4-AD59-6CC629398277}" name="Note" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{E01E2241-9A9D-49DF-ABF3-325062855D68}" name="Quant" dataCellStyle="Standard 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ACF9D383-2FF5-4C21-8C0A-1BE790430B1D}" name="_tBC" displayName="_tBC" ref="G37:I44" totalsRowShown="0" headerRowCellStyle="Standard 2" dataCellStyle="Standard 2">
+  <autoFilter ref="G37:I44" xr:uid="{ACF9D383-2FF5-4C21-8C0A-1BE790430B1D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{87315A26-C7EC-4F88-B265-C31EEB717ABE}" name="Bank" dataCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{50928503-4F39-45E7-AFD1-0D5B3175E167}" name="Note" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{3179809F-3170-483C-B50F-68455EB082AE}" name="Quant" dataCellStyle="Standard 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A68C967C-4009-4CE3-BB93-DD36DD37BD9B}" name="_tI" displayName="_tI" ref="G46:I53" totalsRowShown="0" headerRowCellStyle="Standard 2" dataCellStyle="Standard 2">
+  <autoFilter ref="G46:I53" xr:uid="{A68C967C-4009-4CE3-BB93-DD36DD37BD9B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4A56FF31-7557-497A-BD85-B047CC187AE4}" name="Bank" dataCellStyle="Standard 2"/>
+    <tableColumn id="2" xr3:uid="{40A2853E-4958-4265-9384-466B31469986}" name="Note" dataCellStyle="Standard 2"/>
+    <tableColumn id="3" xr3:uid="{33902030-EB57-4EF3-9DBB-6149F1F2518C}" name="Quant" dataCellStyle="Standard 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2435,7 +2539,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="850" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="392" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2469,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A81AA6B-8E40-4088-895F-9744BA54F3C6}">
   <dimension ref="A2:O164"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
@@ -2498,18 +2602,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="2:11" ht="21.75" customHeight="1">
       <c r="B3" s="1"/>
@@ -2522,46 +2626,46 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
-      <c r="B4" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -2620,13 +2724,13 @@
         <f>IF(ISBLANK(E11),0,IF(E11=Answers!E11,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="2:11" ht="64.5" customHeight="1">
       <c r="B12" s="19" t="s">
@@ -2643,13 +2747,13 @@
         <f>IF(ISBLANK(E12),0,IF(E12=Answers!E12,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1">
       <c r="B13" s="19" t="s">
@@ -2666,13 +2770,13 @@
         <f>IF(ISBLANK(E13),0,IF(E13=Answers!E13,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="2:11" ht="33.75" customHeight="1">
       <c r="B14" s="19" t="s">
@@ -2689,13 +2793,13 @@
         <f>IF(ISBLANK(E14),0,IF(E14=Answers!E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="2:11" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -2729,12 +2833,12 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="65" t="str" cm="1">
+      <c r="I17" s="76" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
         <v>0/370</v>
       </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B18" s="27" t="s">
@@ -2744,23 +2848,23 @@
         <v>13</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
@@ -3448,12 +3552,12 @@
       <c r="G70" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="62" t="s">
+      <c r="H70" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="64"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="75"/>
     </row>
     <row r="71" spans="2:11" ht="15" customHeight="1">
       <c r="B71" s="1"/>
@@ -3882,18 +3986,18 @@
       <c r="G93" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="62" t="s">
+      <c r="H93" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="63"/>
-      <c r="J93" s="63"/>
-      <c r="K93" s="64"/>
-      <c r="L93" s="62" t="s">
+      <c r="I93" s="74"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="M93" s="63"/>
-      <c r="N93" s="63"/>
-      <c r="O93" s="64"/>
+      <c r="M93" s="74"/>
+      <c r="N93" s="74"/>
+      <c r="O93" s="75"/>
     </row>
     <row r="94" spans="2:15" ht="15" customHeight="1">
       <c r="B94" s="1"/>
@@ -5320,18 +5424,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="I17:K20"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="I17:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5665,8 +5769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192E9B44-6F22-445A-9A18-8C4FDE921BA0}">
   <dimension ref="A2:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView topLeftCell="E145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K158" sqref="K158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
@@ -5697,34 +5801,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5739,80 +5843,80 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="68" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5827,18 +5931,18 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="9" spans="2:11" ht="14.7" customHeight="1" thickBot="1">
       <c r="B9" s="5"/>
@@ -5884,19 +5988,19 @@
         <f>IF(ISBLANK(E11),0,IF(E11=Answers!E11,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="75" t="s">
+      <c r="K11" s="72" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5915,19 +6019,19 @@
         <f>IF(ISBLANK(E12),0,IF(E12=Answers!E12,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="62" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5948,19 +6052,19 @@
         <f>IF(ISBLANK(E13),0,IF(E13=Answers!E13,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="62" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5979,19 +6083,19 @@
         <f>IF(ISBLANK(E14),0,IF(E14=Answers!E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="62" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6028,12 +6132,12 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="65" t="str" cm="1">
+      <c r="I17" s="76" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
         <v>180/370</v>
       </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B18" s="27" t="s">
@@ -6043,23 +6147,23 @@
         <v>151</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
@@ -6813,12 +6917,12 @@
       <c r="G70" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H70" s="62" t="s">
+      <c r="H70" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="64"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="75"/>
     </row>
     <row r="71" spans="2:16" ht="15" customHeight="1">
       <c r="B71" s="1"/>
@@ -7397,28 +7501,28 @@
       <c r="G93" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H93" s="62" t="s">
+      <c r="H93" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="I93" s="63" t="s">
+      <c r="I93" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="J93" s="63" t="s">
+      <c r="J93" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="K93" s="64" t="s">
+      <c r="K93" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="L93" s="62" t="s">
+      <c r="L93" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="M93" s="63" t="s">
+      <c r="M93" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="N93" s="63" t="s">
+      <c r="N93" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="O93" s="64" t="s">
+      <c r="O93" s="75" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8788,22 +8892,22 @@
         <v>183</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="14.7" customHeight="1">
+    <row r="145" spans="2:11" ht="14.7" customHeight="1">
       <c r="B145" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="14.7" customHeight="1">
+    <row r="146" spans="2:11" ht="14.7" customHeight="1">
       <c r="B146" s="5"/>
       <c r="C146" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="14.7" customHeight="1" thickBot="1">
+    <row r="147" spans="2:11" ht="14.7" customHeight="1" thickBot="1">
       <c r="B147" s="5"/>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="2:9" ht="25.5" customHeight="1" thickBot="1">
+    <row r="148" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
       <c r="B148" s="9" t="s">
         <v>141</v>
       </c>
@@ -8826,7 +8930,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15" customHeight="1">
+    <row r="149" spans="2:11" ht="15" customHeight="1">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -8834,7 +8938,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="2:9" ht="25.5" customHeight="1">
+    <row r="150" spans="2:11" ht="25.5" customHeight="1">
       <c r="B150" s="30" t="s">
         <v>181</v>
       </c>
@@ -8860,8 +8964,12 @@
       <c r="I150" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" ht="25.5" customHeight="1">
+      <c r="K150" s="1" cm="1">
+        <f t="array" ref="K150">INDEX(_xlfn.LET(_xlpm.nm, G150, _xlpm.no, _tTest[Note], _xlpm.qt, _tTest[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" ht="25.5" customHeight="1">
       <c r="B152" s="36">
         <v>51</v>
       </c>
@@ -8885,8 +8993,12 @@
       <c r="I152" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" ht="25.5" customHeight="1">
+      <c r="K152" s="61" cm="1">
+        <f t="array" ref="K152">INDEX(_xlfn.LET(_xlpm.nm, G152, _xlpm.no,_tP[Note], _xlpm.qt, _tP[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" ht="25.5" customHeight="1">
       <c r="B153" s="36">
         <v>52</v>
       </c>
@@ -8910,8 +9022,12 @@
       <c r="I153" s="34">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" ht="25.5" customHeight="1">
+      <c r="K153" s="61" cm="1">
+        <f t="array" ref="K153">INDEX(_xlfn.LET(_xlpm.nm, G153, _xlpm.no, Table7[Note], _xlpm.qt, Table7[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" ht="25.5" customHeight="1">
       <c r="B154" s="36">
         <v>53</v>
       </c>
@@ -8935,8 +9051,12 @@
       <c r="I154" s="34">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" ht="25.5" customHeight="1">
+      <c r="K154" s="61" cm="1">
+        <f t="array" ref="K154">INDEX(_xlfn.LET(_xlpm.nm, G154, _xlpm.no, _tS[Note], _xlpm.qt, _tS[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" ht="25.5" customHeight="1">
       <c r="B155" s="36">
         <v>54</v>
       </c>
@@ -8960,8 +9080,12 @@
       <c r="I155" s="34">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" ht="25.5" customHeight="1">
+      <c r="K155" s="61" cm="1">
+        <f t="array" ref="K155">INDEX(_xlfn.LET(_xlpm.nm, G155, _xlpm.no, _tE[Note], _xlpm.qt, _tE[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" ht="25.5" customHeight="1">
       <c r="B156" s="36">
         <v>55</v>
       </c>
@@ -8985,8 +9109,12 @@
       <c r="I156" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:9" ht="25.5" customHeight="1">
+      <c r="K156" s="61" cm="1">
+        <f t="array" ref="K156">INDEX(_xlfn.LET(_xlpm.nm, G156, _xlpm.no, _tBC[Note], _xlpm.qt, _tBC[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" ht="25.5" customHeight="1">
       <c r="B157" s="36">
         <v>56</v>
       </c>
@@ -9010,8 +9138,12 @@
       <c r="I157" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" ht="25.5" customHeight="1">
+      <c r="K157" s="61" cm="1">
+        <f t="array" ref="K157">INDEX(_xlfn.LET(_xlpm.nm, G157, _xlpm.no, _tI[Note], _xlpm.qt, _tI[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" ht="25.5" customHeight="1">
       <c r="B158" s="36">
         <v>57</v>
       </c>
@@ -9036,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="25.5" customHeight="1">
+    <row r="159" spans="2:11" ht="25.5" customHeight="1">
       <c r="B159" s="36">
         <v>58</v>
       </c>
@@ -9061,7 +9193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="25.5" customHeight="1">
+    <row r="160" spans="2:11" ht="25.5" customHeight="1">
       <c r="B160" s="36">
         <v>59</v>
       </c>
@@ -9715,8 +9847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF27E72-C0A8-423E-B550-B7E133FBE934}">
   <dimension ref="A2:O164"/>
   <sheetViews>
-    <sheetView topLeftCell="E69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
@@ -9744,18 +9876,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="2:11" ht="21.75" customHeight="1">
       <c r="B3" s="1"/>
@@ -9768,46 +9900,46 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
-      <c r="B4" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -9865,13 +9997,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="2:11" ht="64.5" customHeight="1">
       <c r="B12" s="19" t="s">
@@ -9887,13 +10019,13 @@
         <v>2204096</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1">
       <c r="B13" s="19" t="s">
@@ -9909,13 +10041,13 @@
         <v>10004117235</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="2:11" ht="33.75" customHeight="1">
       <c r="B14" s="19" t="s">
@@ -9931,13 +10063,13 @@
         <v>949</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="2:11" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -10631,12 +10763,12 @@
       <c r="G70" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="62" t="s">
+      <c r="H70" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="64"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="75"/>
     </row>
     <row r="71" spans="2:11" ht="15" customHeight="1">
       <c r="B71" s="1"/>
@@ -11052,18 +11184,18 @@
       <c r="G93" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="62" t="s">
+      <c r="H93" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="63"/>
-      <c r="J93" s="63"/>
-      <c r="K93" s="64"/>
-      <c r="L93" s="62" t="s">
+      <c r="I93" s="74"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="M93" s="63"/>
-      <c r="N93" s="63"/>
-      <c r="O93" s="64"/>
+      <c r="M93" s="74"/>
+      <c r="N93" s="74"/>
+      <c r="O93" s="75"/>
     </row>
     <row r="94" spans="2:15" ht="15" customHeight="1">
       <c r="B94" s="1"/>
@@ -11902,6 +12034,18 @@
     <row r="140" spans="2:9" ht="14.7" customHeight="1" thickBot="1">
       <c r="B140" s="5"/>
       <c r="C140" s="4"/>
+      <c r="G140" s="3" t="str">
+        <f>_xlfn.TRANSLATE(G141)</f>
+        <v>Amount</v>
+      </c>
+      <c r="H140" s="3" t="str">
+        <f t="shared" ref="H140:I140" si="0">_xlfn.TRANSLATE(H141)</f>
+        <v>Project</v>
+      </c>
+      <c r="I140" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Measure</v>
+      </c>
     </row>
     <row r="141" spans="2:9" ht="25.5" customHeight="1" thickBot="1">
       <c r="B141" s="9" t="s">
@@ -12440,19 +12584,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:O93"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:O93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -12939,21 +13084,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC71D1EF-0DAC-4349-8885-410BD14E743A}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A2:X25"/>
+  <dimension ref="A2:X98"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="C34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="25.8"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="34" style="45" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="45" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" style="45" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.6640625" style="45" bestFit="1" customWidth="1"/>
@@ -13819,7 +13964,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="45" t="s">
         <v>53</v>
       </c>
@@ -13869,7 +14014,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" s="45" t="s">
         <v>53</v>
       </c>
@@ -13919,7 +14064,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" s="45" t="s">
         <v>53</v>
       </c>
@@ -13969,7 +14114,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
@@ -14019,7 +14164,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" s="45" t="s">
         <v>53</v>
       </c>
@@ -14069,7 +14214,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="45" t="s">
         <v>53</v>
       </c>
@@ -14119,7 +14264,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" s="45" t="s">
         <v>53</v>
       </c>
@@ -14169,7 +14314,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" s="45" t="s">
         <v>53</v>
       </c>
@@ -14219,7 +14364,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="C25" s="46">
         <f t="shared" ref="C25:P25" si="0">SUBTOTAL(109,C4:C24)</f>
         <v>5940107</v>
@@ -14277,11 +14422,1304 @@
         <v>40821</v>
       </c>
     </row>
+    <row r="28" spans="1:17">
+      <c r="C28" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="C29" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="45">
+        <v>100000</v>
+      </c>
+      <c r="E29" s="45">
+        <v>100</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="45">
+        <v>100</v>
+      </c>
+      <c r="I29" s="45">
+        <v>100</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="45">
+        <v>75462</v>
+      </c>
+      <c r="M29" s="45">
+        <v>972</v>
+      </c>
+      <c r="O29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" s="45">
+        <v>83922</v>
+      </c>
+      <c r="Q29" s="45">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="C30" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="45">
+        <v>50000</v>
+      </c>
+      <c r="E30" s="45">
+        <v>100</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="45">
+        <v>50</v>
+      </c>
+      <c r="I30" s="45">
+        <v>100</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="45">
+        <v>24310</v>
+      </c>
+      <c r="M30" s="45">
+        <v>2785</v>
+      </c>
+      <c r="O30" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" s="45">
+        <v>24169</v>
+      </c>
+      <c r="Q30" s="45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="C31" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="45">
+        <v>20000</v>
+      </c>
+      <c r="E31" s="45">
+        <v>100</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="45">
+        <v>20</v>
+      </c>
+      <c r="I31" s="45">
+        <v>100</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="45">
+        <v>4822</v>
+      </c>
+      <c r="M31" s="45">
+        <v>1801</v>
+      </c>
+      <c r="O31" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="45">
+        <v>4752</v>
+      </c>
+      <c r="Q31" s="45">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="C32" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="45">
+        <v>7500</v>
+      </c>
+      <c r="E32" s="45">
+        <v>100</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="45">
+        <v>10</v>
+      </c>
+      <c r="I32" s="45">
+        <v>100</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="45">
+        <v>2724</v>
+      </c>
+      <c r="M32" s="45">
+        <v>1256</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" s="45">
+        <v>2784</v>
+      </c>
+      <c r="Q32" s="45">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17">
+      <c r="C33" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="45">
+        <v>2250</v>
+      </c>
+      <c r="E33" s="45">
+        <v>100</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="45">
+        <v>5</v>
+      </c>
+      <c r="I33" s="45">
+        <v>100</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="45">
+        <v>199</v>
+      </c>
+      <c r="M33" s="45">
+        <v>3768</v>
+      </c>
+      <c r="O33" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="45">
+        <v>122</v>
+      </c>
+      <c r="Q33" s="45">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17">
+      <c r="C34" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="45">
+        <v>25</v>
+      </c>
+      <c r="E34" s="45">
+        <v>100</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="45">
+        <v>2</v>
+      </c>
+      <c r="I34" s="45">
+        <v>100</v>
+      </c>
+      <c r="K34" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="45">
+        <v>45</v>
+      </c>
+      <c r="M34" s="45">
+        <v>1794</v>
+      </c>
+      <c r="O34" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="45">
+        <v>90</v>
+      </c>
+      <c r="Q34" s="45">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17">
+      <c r="C35" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="45">
+        <v>1</v>
+      </c>
+      <c r="E35" s="45">
+        <v>100</v>
+      </c>
+      <c r="G35" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="45">
+        <v>1</v>
+      </c>
+      <c r="I35" s="45">
+        <v>100</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="45">
+        <v>1</v>
+      </c>
+      <c r="M35" s="45">
+        <v>1318</v>
+      </c>
+      <c r="O35" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="45">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17">
+      <c r="C36" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="45">
+        <v>62013</v>
+      </c>
+      <c r="E36" s="45">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17">
+      <c r="C37" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="45">
+        <v>12152</v>
+      </c>
+      <c r="E37" s="45">
+        <v>3486</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="M37" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="O37" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q37" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17">
+      <c r="C38" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="45">
+        <v>11241</v>
+      </c>
+      <c r="E38" s="45">
+        <v>2203</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="45">
+        <v>62013</v>
+      </c>
+      <c r="I38" s="45">
+        <v>3584</v>
+      </c>
+      <c r="K38" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="45">
+        <v>100000</v>
+      </c>
+      <c r="M38" s="45">
+        <v>100</v>
+      </c>
+      <c r="O38" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="45">
+        <v>90046</v>
+      </c>
+      <c r="Q38" s="45">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17">
+      <c r="C39" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="45">
+        <v>2850</v>
+      </c>
+      <c r="E39" s="45">
+        <v>3599</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="45">
+        <v>12152</v>
+      </c>
+      <c r="I39" s="45">
+        <v>3486</v>
+      </c>
+      <c r="K39" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="45">
+        <v>50000</v>
+      </c>
+      <c r="M39" s="45">
+        <v>100</v>
+      </c>
+      <c r="O39" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="45">
+        <v>13451</v>
+      </c>
+      <c r="Q39" s="45">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17">
+      <c r="C40" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="45">
+        <v>100</v>
+      </c>
+      <c r="E40" s="45">
+        <v>3635</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="45">
+        <v>11241</v>
+      </c>
+      <c r="I40" s="45">
+        <v>2203</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="45">
+        <v>20000</v>
+      </c>
+      <c r="M40" s="45">
+        <v>100</v>
+      </c>
+      <c r="O40" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="45">
+        <v>9278</v>
+      </c>
+      <c r="Q40" s="45">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17">
+      <c r="C41" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="45">
+        <v>94</v>
+      </c>
+      <c r="E41" s="45">
+        <v>2150</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="45">
+        <v>2850</v>
+      </c>
+      <c r="I41" s="45">
+        <v>3599</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="45">
+        <v>7500</v>
+      </c>
+      <c r="M41" s="45">
+        <v>100</v>
+      </c>
+      <c r="O41" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="45">
+        <v>3209</v>
+      </c>
+      <c r="Q41" s="45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17">
+      <c r="C42" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="45">
+        <v>1</v>
+      </c>
+      <c r="E42" s="45">
+        <v>1337</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="45">
+        <v>100</v>
+      </c>
+      <c r="I42" s="45">
+        <v>3635</v>
+      </c>
+      <c r="K42" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="45">
+        <v>2250</v>
+      </c>
+      <c r="M42" s="45">
+        <v>100</v>
+      </c>
+      <c r="O42" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" s="45">
+        <v>137</v>
+      </c>
+      <c r="Q42" s="45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17">
+      <c r="C43" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="45">
+        <v>25398</v>
+      </c>
+      <c r="E43" s="45">
+        <v>321</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="45">
+        <v>94</v>
+      </c>
+      <c r="I43" s="45">
+        <v>2150</v>
+      </c>
+      <c r="K43" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="45">
+        <v>25</v>
+      </c>
+      <c r="M43" s="45">
+        <v>100</v>
+      </c>
+      <c r="O43" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" s="45">
+        <v>59</v>
+      </c>
+      <c r="Q43" s="45">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17">
+      <c r="C44" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="45">
+        <v>5414</v>
+      </c>
+      <c r="E44" s="45">
+        <v>3619</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="45">
+        <v>1</v>
+      </c>
+      <c r="I44" s="45">
+        <v>1337</v>
+      </c>
+      <c r="K44" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" s="45">
+        <v>1</v>
+      </c>
+      <c r="M44" s="45">
+        <v>100</v>
+      </c>
+      <c r="O44" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17">
+      <c r="C45" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="45">
+        <v>4484</v>
+      </c>
+      <c r="E45" s="45">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17">
+      <c r="C46" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="45">
+        <v>3238</v>
+      </c>
+      <c r="E46" s="45">
+        <v>673</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17">
+      <c r="C47" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="45">
+        <v>130</v>
+      </c>
+      <c r="E47" s="45">
+        <v>2322</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="45">
+        <v>59042</v>
+      </c>
+      <c r="I47" s="45">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17">
+      <c r="C48" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="45">
+        <v>27</v>
+      </c>
+      <c r="E48" s="45">
+        <v>3235</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="45">
+        <v>34102</v>
+      </c>
+      <c r="I48" s="45">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="45">
+        <v>1</v>
+      </c>
+      <c r="E49" s="45">
+        <v>3213</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="45">
+        <v>7985</v>
+      </c>
+      <c r="I49" s="45">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="45">
+        <v>90046</v>
+      </c>
+      <c r="E50" s="45">
+        <v>4313</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="45">
+        <v>1213</v>
+      </c>
+      <c r="I50" s="45">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="45">
+        <v>13451</v>
+      </c>
+      <c r="E51" s="45">
+        <v>2305</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="45">
+        <v>145</v>
+      </c>
+      <c r="I51" s="45">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="45">
+        <v>9278</v>
+      </c>
+      <c r="E52" s="45">
+        <v>2168</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="45">
+        <v>50</v>
+      </c>
+      <c r="I52" s="45">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="45">
+        <v>3209</v>
+      </c>
+      <c r="E53" s="45">
+        <v>119</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="45">
+        <v>1</v>
+      </c>
+      <c r="I53" s="45">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="45">
+        <v>137</v>
+      </c>
+      <c r="E54" s="45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="45">
+        <v>59</v>
+      </c>
+      <c r="E55" s="45">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="45">
+        <v>1</v>
+      </c>
+      <c r="E56" s="45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="45">
+        <v>75462</v>
+      </c>
+      <c r="E57" s="45">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="45">
+        <v>24310</v>
+      </c>
+      <c r="E58" s="45">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="45">
+        <v>4822</v>
+      </c>
+      <c r="E59" s="45">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="45">
+        <v>2724</v>
+      </c>
+      <c r="E60" s="45">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="45">
+        <v>199</v>
+      </c>
+      <c r="E61" s="45">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="45">
+        <v>45</v>
+      </c>
+      <c r="E62" s="45">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="45">
+        <v>1</v>
+      </c>
+      <c r="E63" s="45">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="C64" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="45">
+        <v>54159</v>
+      </c>
+      <c r="E64" s="45">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="45">
+        <v>12111</v>
+      </c>
+      <c r="E65" s="45">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="45">
+        <v>9313</v>
+      </c>
+      <c r="E66" s="45">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="45">
+        <v>2427</v>
+      </c>
+      <c r="E67" s="45">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="45">
+        <v>116</v>
+      </c>
+      <c r="E68" s="45">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="45">
+        <v>71</v>
+      </c>
+      <c r="E69" s="45">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="45">
+        <v>1</v>
+      </c>
+      <c r="E70" s="45">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="45">
+        <v>39398</v>
+      </c>
+      <c r="E71" s="45">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="45">
+        <v>22222</v>
+      </c>
+      <c r="E72" s="45">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="45">
+        <v>9394</v>
+      </c>
+      <c r="E73" s="45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="45">
+        <v>1469</v>
+      </c>
+      <c r="E74" s="45">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="45">
+        <v>195</v>
+      </c>
+      <c r="E75" s="45">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="45">
+        <v>100</v>
+      </c>
+      <c r="E76" s="45">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="C77" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="45">
+        <v>1</v>
+      </c>
+      <c r="E77" s="45">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="C78" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="45">
+        <v>83922</v>
+      </c>
+      <c r="E78" s="45">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="C79" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="45">
+        <v>24169</v>
+      </c>
+      <c r="E79" s="45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="C80" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="45">
+        <v>4752</v>
+      </c>
+      <c r="E80" s="45">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="C81" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="45">
+        <v>2784</v>
+      </c>
+      <c r="E81" s="45">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="C82" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="45">
+        <v>122</v>
+      </c>
+      <c r="E82" s="45">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="C83" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="45">
+        <v>90</v>
+      </c>
+      <c r="E83" s="45">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5">
+      <c r="C84" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="45">
+        <v>1</v>
+      </c>
+      <c r="E84" s="45">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="C85" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="45">
+        <v>59042</v>
+      </c>
+      <c r="E85" s="45">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="C86" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="45">
+        <v>34102</v>
+      </c>
+      <c r="E86" s="45">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="C87" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="45">
+        <v>7985</v>
+      </c>
+      <c r="E87" s="45">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="C88" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="45">
+        <v>1213</v>
+      </c>
+      <c r="E88" s="45">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="C89" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="45">
+        <v>145</v>
+      </c>
+      <c r="E89" s="45">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5">
+      <c r="C90" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="45">
+        <v>50</v>
+      </c>
+      <c r="E90" s="45">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5">
+      <c r="C91" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="45">
+        <v>1</v>
+      </c>
+      <c r="E91" s="45">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5">
+      <c r="C92" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="45">
+        <v>74884</v>
+      </c>
+      <c r="E92" s="45">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5">
+      <c r="C93" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="45">
+        <v>32415</v>
+      </c>
+      <c r="E93" s="45">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5">
+      <c r="C94" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" s="45">
+        <v>9040</v>
+      </c>
+      <c r="E94" s="45">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5">
+      <c r="C95" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="45">
+        <v>420</v>
+      </c>
+      <c r="E95" s="45">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5">
+      <c r="C96" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="45">
+        <v>137</v>
+      </c>
+      <c r="E96" s="45">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="C97" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" s="45">
+        <v>42</v>
+      </c>
+      <c r="E97" s="45">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5">
+      <c r="C98" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" s="45">
+        <v>1</v>
+      </c>
+      <c r="E98" s="45">
+        <v>3268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Geldautomat_ATM.xlsx
+++ b/Geldautomat_ATM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295CEDCD-099E-4251-998A-E66A3EEAAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ABFE2D-B7D3-4AB0-BC3E-FF3CBCFA3743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50C9C147-E925-4C04-99B8-FFE8930A841B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{50C9C147-E925-4C04-99B8-FFE8930A841B}"/>
   </bookViews>
   <sheets>
     <sheet name="Case DE" sheetId="4" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="217">
   <si>
     <t>Geldautomat</t>
   </si>
@@ -796,6 +796,12 @@
   </si>
   <si>
     <t>Quant</t>
+  </si>
+  <si>
+    <t>Bank IF: 14</t>
+  </si>
+  <si>
+    <t>ExFunds: 46</t>
   </si>
 </sst>
 </file>
@@ -963,7 +969,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,6 +1031,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,7 +1277,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1422,6 +1434,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1991,8 +2010,8 @@
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>153086</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>328346</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
@@ -2036,7 +2055,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -2539,7 +2558,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="392" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="812" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2573,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A81AA6B-8E40-4088-895F-9744BA54F3C6}">
   <dimension ref="A2:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2602,18 +2621,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="2:11" ht="21.75" customHeight="1">
       <c r="B3" s="1"/>
@@ -2626,46 +2645,46 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
-      <c r="B4" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -2724,13 +2743,13 @@
         <f>IF(ISBLANK(E11),0,IF(E11=Answers!E11,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="2:11" ht="64.5" customHeight="1">
       <c r="B12" s="19" t="s">
@@ -2747,13 +2766,13 @@
         <f>IF(ISBLANK(E12),0,IF(E12=Answers!E12,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1">
       <c r="B13" s="19" t="s">
@@ -2770,13 +2789,13 @@
         <f>IF(ISBLANK(E13),0,IF(E13=Answers!E13,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="33.75" customHeight="1">
       <c r="B14" s="19" t="s">
@@ -2793,13 +2812,13 @@
         <f>IF(ISBLANK(E14),0,IF(E14=Answers!E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -2833,12 +2852,12 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="76" t="str" cm="1">
+      <c r="I17" s="81" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
         <v>0/370</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B18" s="27" t="s">
@@ -2848,23 +2867,23 @@
         <v>13</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
@@ -3552,12 +3571,12 @@
       <c r="G70" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="73" t="s">
+      <c r="H70" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="75"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="80"/>
     </row>
     <row r="71" spans="2:11" ht="15" customHeight="1">
       <c r="B71" s="1"/>
@@ -3986,18 +4005,18 @@
       <c r="G93" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="73" t="s">
+      <c r="H93" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="74"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="73" t="s">
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="M93" s="74"/>
-      <c r="N93" s="74"/>
-      <c r="O93" s="75"/>
+      <c r="M93" s="79"/>
+      <c r="N93" s="79"/>
+      <c r="O93" s="80"/>
     </row>
     <row r="94" spans="2:15" ht="15" customHeight="1">
       <c r="B94" s="1"/>
@@ -5767,10 +5786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192E9B44-6F22-445A-9A18-8C4FDE921BA0}">
-  <dimension ref="A2:Q171"/>
+  <dimension ref="A2:Z176"/>
   <sheetViews>
-    <sheetView topLeftCell="E145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K158" sqref="K158"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
@@ -5784,14 +5803,17 @@
     <col min="7" max="7" width="34" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="22.5546875" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" style="2"/>
-    <col min="21" max="21" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.44140625" style="2"/>
+    <col min="12" max="12" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.21875" style="2" customWidth="1"/>
     <col min="23" max="23" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="9.44140625" style="2"/>
     <col min="26" max="26" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -5801,34 +5823,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5843,80 +5865,80 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="73" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5931,18 +5953,18 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="2:11" ht="14.7" customHeight="1" thickBot="1">
       <c r="B9" s="5"/>
@@ -5988,19 +6010,19 @@
         <f>IF(ISBLANK(E11),0,IF(E11=Answers!E11,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="72" t="s">
+      <c r="K11" s="77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6019,19 +6041,19 @@
         <f>IF(ISBLANK(E12),0,IF(E12=Answers!E12,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="62" t="s">
+      <c r="I12" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="67" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6052,19 +6074,19 @@
         <f>IF(ISBLANK(E13),0,IF(E13=Answers!E13,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="67" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6083,19 +6105,19 @@
         <f>IF(ISBLANK(E14),0,IF(E14=Answers!E14,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="67" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6132,12 +6154,12 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="76" t="str" cm="1">
+      <c r="I17" s="81" t="str" cm="1">
         <f t="array" ref="I17">SUMPRODUCT(--(F:F&gt;0),D:D)&amp;"/"&amp;SUM(D:D)</f>
-        <v>180/370</v>
-      </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+        <v>204/370</v>
+      </c>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B18" s="27" t="s">
@@ -6147,23 +6169,23 @@
         <v>151</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1">
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
@@ -6917,12 +6939,12 @@
       <c r="G70" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H70" s="73" t="s">
+      <c r="H70" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="75"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="80"/>
     </row>
     <row r="71" spans="2:16" ht="15" customHeight="1">
       <c r="B71" s="1"/>
@@ -7501,28 +7523,28 @@
       <c r="G93" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H93" s="73" t="s">
+      <c r="H93" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="I93" s="74" t="s">
+      <c r="I93" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="J93" s="74" t="s">
+      <c r="J93" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="K93" s="75" t="s">
+      <c r="K93" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="L93" s="73" t="s">
+      <c r="L93" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="M93" s="74" t="s">
+      <c r="M93" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="N93" s="74" t="s">
+      <c r="N93" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="O93" s="75" t="s">
+      <c r="O93" s="80" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8892,22 +8914,22 @@
         <v>183</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="14.7" customHeight="1">
+    <row r="145" spans="1:26" ht="14.7" customHeight="1">
       <c r="B145" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="14.7" customHeight="1">
+    <row r="146" spans="1:26" ht="14.7" customHeight="1">
       <c r="B146" s="5"/>
       <c r="C146" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="14.7" customHeight="1" thickBot="1">
+    <row r="147" spans="1:26" ht="14.7" customHeight="1" thickBot="1">
       <c r="B147" s="5"/>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
+    <row r="148" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
       <c r="B148" s="9" t="s">
         <v>141</v>
       </c>
@@ -8929,8 +8951,9 @@
       <c r="I148" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1">
+      <c r="Q148" s="61"/>
+    </row>
+    <row r="149" spans="1:26" ht="15" customHeight="1">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -8938,7 +8961,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="2:11" ht="25.5" customHeight="1">
+    <row r="150" spans="1:26" ht="25.5" customHeight="1">
       <c r="B150" s="30" t="s">
         <v>181</v>
       </c>
@@ -8969,7 +8992,50 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="25.5" customHeight="1">
+    <row r="151" spans="1:26" s="66" customFormat="1">
+      <c r="A151" s="64"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="65"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="65"/>
+      <c r="J151" s="64"/>
+      <c r="K151" s="64"/>
+      <c r="L151" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="M151" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="N151" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="O151" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="P151" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q151" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="R151" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="S151" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="T151" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="U151" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" ht="25.5" customHeight="1">
       <c r="B152" s="36">
         <v>51</v>
       </c>
@@ -8979,10 +9045,12 @@
       <c r="D152" s="32">
         <v>6</v>
       </c>
-      <c r="E152" s="33"/>
+      <c r="E152" s="33" t="s">
+        <v>95</v>
+      </c>
       <c r="F152" s="18">
         <f>IF(ISBLANK(E152),0,IF(E152=Answers!E145,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" s="34">
         <v>160262</v>
@@ -8997,8 +9065,63 @@
         <f t="array" ref="K152">INDEX(_xlfn.LET(_xlpm.nm, G152, _xlpm.no,_tP[Note], _xlpm.qt, _tP[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="2:11" ht="25.5" customHeight="1">
+      <c r="L152" s="62" cm="1">
+        <f t="array" ref="L152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, L$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>36</v>
+      </c>
+      <c r="M152" s="62" cm="1">
+        <f t="array" ref="M152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, M$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>102</v>
+      </c>
+      <c r="N152" s="62" cm="1">
+        <f t="array" ref="N152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, N$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>41</v>
+      </c>
+      <c r="O152" s="62" cm="1">
+        <f t="array" ref="O152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, O$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>53</v>
+      </c>
+      <c r="P152" s="62" cm="1">
+        <f t="array" ref="P152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, P$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>14</v>
+      </c>
+      <c r="Q152" s="62" cm="1">
+        <f t="array" ref="Q152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, Q$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>45</v>
+      </c>
+      <c r="R152" s="62" cm="1">
+        <f t="array" ref="R152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, R$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>42</v>
+      </c>
+      <c r="S152" s="62" cm="1">
+        <f t="array" ref="S152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, S$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>86</v>
+      </c>
+      <c r="T152" s="62" cm="1">
+        <f t="array" ref="T152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, T$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>46</v>
+      </c>
+      <c r="U152" s="62" cm="1">
+        <f t="array" ref="U152">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W151, U$151), _xlpm.nm, $G152, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>23</v>
+      </c>
+      <c r="V152" s="2">
+        <f>MIN(L152:U152)</f>
+        <v>14</v>
+      </c>
+      <c r="W152" s="2" t="str" cm="1">
+        <f t="array" ref="W152">INDEX($L$151:$U$151,_xlfn.XMATCH(MIN(L152:U152),L152:U152))</f>
+        <v>Pivot Finance Group</v>
+      </c>
+      <c r="X152" s="2" t="str">
+        <f>W152&amp;": "&amp;V152</f>
+        <v>Pivot Finance Group: 14</v>
+      </c>
+      <c r="Z152" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" ht="25.5" customHeight="1">
       <c r="B153" s="36">
         <v>52</v>
       </c>
@@ -9008,10 +9131,12 @@
       <c r="D153" s="32">
         <v>6</v>
       </c>
-      <c r="E153" s="33"/>
+      <c r="E153" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="F153" s="18">
         <f>IF(ISBLANK(E153),0,IF(E153=Answers!E146,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" s="34">
         <v>77716</v>
@@ -9026,8 +9151,63 @@
         <f t="array" ref="K153">INDEX(_xlfn.LET(_xlpm.nm, G153, _xlpm.no, Table7[Note], _xlpm.qt, Table7[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="2:11" ht="25.5" customHeight="1">
+      <c r="L153" s="62" cm="1">
+        <f t="array" ref="L153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, L$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>27</v>
+      </c>
+      <c r="M153" s="62" cm="1">
+        <f t="array" ref="M153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, M$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>11</v>
+      </c>
+      <c r="N153" s="62" cm="1">
+        <f t="array" ref="N153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, N$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>28</v>
+      </c>
+      <c r="O153" s="62" cm="1">
+        <f t="array" ref="O153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, O$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>43</v>
+      </c>
+      <c r="P153" s="62" cm="1">
+        <f t="array" ref="P153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, P$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="Q153" s="62" cm="1">
+        <f t="array" ref="Q153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, Q$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>66</v>
+      </c>
+      <c r="R153" s="62" cm="1">
+        <f t="array" ref="R153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, R$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>57</v>
+      </c>
+      <c r="S153" s="62" cm="1">
+        <f t="array" ref="S153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, S$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>9</v>
+      </c>
+      <c r="T153" s="62" cm="1">
+        <f t="array" ref="T153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, T$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>41</v>
+      </c>
+      <c r="U153" s="62" cm="1">
+        <f t="array" ref="U153">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W152, U$151), _xlpm.nm, $G153, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>47</v>
+      </c>
+      <c r="V153" s="2">
+        <f t="shared" ref="V153:V157" si="6">MIN(L153:U153)</f>
+        <v>9</v>
+      </c>
+      <c r="W153" s="2" t="str" cm="1">
+        <f t="array" ref="W153">INDEX($L$151:$U$151,_xlfn.XMATCH(MIN(L153:U153),L153:U153))</f>
+        <v>CELLtral Bank</v>
+      </c>
+      <c r="X153" s="2" t="str">
+        <f t="shared" ref="X153:X157" si="7">W153&amp;": "&amp;V153</f>
+        <v>CELLtral Bank: 9</v>
+      </c>
+      <c r="Z153" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" ht="25.5" customHeight="1">
       <c r="B154" s="36">
         <v>53</v>
       </c>
@@ -9037,10 +9217,12 @@
       <c r="D154" s="32">
         <v>6</v>
       </c>
-      <c r="E154" s="33"/>
+      <c r="E154" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="F154" s="18">
         <f>IF(ISBLANK(E154),0,IF(E154=Answers!E147,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" s="34">
         <v>12345678</v>
@@ -9055,8 +9237,63 @@
         <f t="array" ref="K154">INDEX(_xlfn.LET(_xlpm.nm, G154, _xlpm.no, _tS[Note], _xlpm.qt, _tS[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
         <v>178</v>
       </c>
-    </row>
-    <row r="155" spans="2:11" ht="25.5" customHeight="1">
+      <c r="L154" s="62" cm="1">
+        <f t="array" ref="L154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, L$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>200</v>
+      </c>
+      <c r="M154" s="62" cm="1">
+        <f t="array" ref="M154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, M$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>263</v>
+      </c>
+      <c r="N154" s="62" cm="1">
+        <f t="array" ref="N154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, N$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1128</v>
+      </c>
+      <c r="O154" s="62" cm="1">
+        <f t="array" ref="O154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, O$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>178</v>
+      </c>
+      <c r="P154" s="62" cm="1">
+        <f t="array" ref="P154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, P$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="Q154" s="62" cm="1">
+        <f t="array" ref="Q154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, Q$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>256</v>
+      </c>
+      <c r="R154" s="62" cm="1">
+        <f t="array" ref="R154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, R$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>327</v>
+      </c>
+      <c r="S154" s="62" cm="1">
+        <f t="array" ref="S154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, S$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="T154" s="62" cm="1">
+        <f t="array" ref="T154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, T$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>253</v>
+      </c>
+      <c r="U154" s="62" cm="1">
+        <f t="array" ref="U154">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W153, U$151), _xlpm.nm, $G154, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>184</v>
+      </c>
+      <c r="V154" s="2">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="W154" s="2" t="str" cm="1">
+        <f t="array" ref="W154">INDEX($L$151:$U$151,_xlfn.XMATCH(MIN(L154:U154),L154:U154))</f>
+        <v>SheetBank AG</v>
+      </c>
+      <c r="X154" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>SheetBank AG: 178</v>
+      </c>
+      <c r="Z154" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" ht="25.5" customHeight="1">
       <c r="B155" s="36">
         <v>54</v>
       </c>
@@ -9066,10 +9303,12 @@
       <c r="D155" s="32">
         <v>6</v>
       </c>
-      <c r="E155" s="33"/>
+      <c r="E155" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="F155" s="18">
         <f>IF(ISBLANK(E155),0,IF(E155=Answers!E148,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" s="34">
         <v>10000004</v>
@@ -9084,8 +9323,63 @@
         <f t="array" ref="K155">INDEX(_xlfn.LET(_xlpm.nm, G155, _xlpm.no, _tE[Note], _xlpm.qt, _tE[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
         <v>104</v>
       </c>
-    </row>
-    <row r="156" spans="2:11" ht="25.5" customHeight="1">
+      <c r="L155" s="62" cm="1">
+        <f t="array" ref="L155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, L$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>104</v>
+      </c>
+      <c r="M155" s="62" cm="1">
+        <f t="array" ref="M155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, M$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>181</v>
+      </c>
+      <c r="N155" s="62" cm="1">
+        <f t="array" ref="N155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, N$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>676</v>
+      </c>
+      <c r="O155" s="62" cm="1">
+        <f t="array" ref="O155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, O$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="P155" s="62" cm="1">
+        <f t="array" ref="P155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, P$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="Q155" s="62" cm="1">
+        <f t="array" ref="Q155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, Q$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>250</v>
+      </c>
+      <c r="R155" s="62" cm="1">
+        <f t="array" ref="R155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, R$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>268</v>
+      </c>
+      <c r="S155" s="62" cm="1">
+        <f t="array" ref="S155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, S$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="T155" s="62" cm="1">
+        <f t="array" ref="T155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, T$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>202</v>
+      </c>
+      <c r="U155" s="62" cm="1">
+        <f t="array" ref="U155">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W154, U$151), _xlpm.nm, $G155, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>190</v>
+      </c>
+      <c r="V155" s="2">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="W155" s="2" t="str" cm="1">
+        <f t="array" ref="W155">INDEX($L$151:$U$151,_xlfn.XMATCH(MIN(L155:U155),L155:U155))</f>
+        <v>ExCell Bank</v>
+      </c>
+      <c r="X155" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>ExCell Bank: 104</v>
+      </c>
+      <c r="Z155" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="25.5" customHeight="1">
       <c r="B156" s="36">
         <v>55</v>
       </c>
@@ -9095,10 +9389,12 @@
       <c r="D156" s="32">
         <v>6</v>
       </c>
-      <c r="E156" s="33"/>
+      <c r="E156" s="33" t="s">
+        <v>215</v>
+      </c>
       <c r="F156" s="18">
         <f>IF(ISBLANK(E156),0,IF(E156=Answers!E149,1,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G156" s="34">
         <v>78121</v>
@@ -9113,8 +9409,63 @@
         <f t="array" ref="K156">INDEX(_xlfn.LET(_xlpm.nm, G156, _xlpm.no, _tBC[Note], _xlpm.qt, _tBC[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="2:11" ht="25.5" customHeight="1">
+      <c r="L156" s="62" cm="1">
+        <f t="array" ref="L156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, L$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="M156" s="62" cm="1">
+        <f t="array" ref="M156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, M$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>20</v>
+      </c>
+      <c r="N156" s="62" cm="1">
+        <f t="array" ref="N156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, N$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>46</v>
+      </c>
+      <c r="O156" s="62" cm="1">
+        <f t="array" ref="O156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, O$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="P156" s="62" cm="1">
+        <f t="array" ref="P156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, P$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="Q156" s="62" cm="1">
+        <f t="array" ref="Q156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, Q$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>45</v>
+      </c>
+      <c r="R156" s="62" cm="1">
+        <f t="array" ref="R156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, R$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>74</v>
+      </c>
+      <c r="S156" s="62" cm="1">
+        <f t="array" ref="S156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, S$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="T156" s="62" cm="1">
+        <f t="array" ref="T156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, T$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>14</v>
+      </c>
+      <c r="U156" s="62" cm="1">
+        <f t="array" ref="U156">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W155, U$151), _xlpm.nm, $G156, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>33</v>
+      </c>
+      <c r="V156" s="2">
+        <f>MIN(L156:U156)</f>
+        <v>14</v>
+      </c>
+      <c r="W156" s="2" t="str" cm="1">
+        <f t="array" ref="W156">INDEX($L$151:$U$151,_xlfn.XMATCH(MIN(L156:U156),L156:U156))</f>
+        <v>Bank IF</v>
+      </c>
+      <c r="X156" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Bank IF: 14</v>
+      </c>
+      <c r="Z156" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="25.5" customHeight="1">
       <c r="B157" s="36">
         <v>56</v>
       </c>
@@ -9124,10 +9475,12 @@
       <c r="D157" s="32">
         <v>6</v>
       </c>
-      <c r="E157" s="33"/>
+      <c r="E157" s="33" t="s">
+        <v>216</v>
+      </c>
       <c r="F157" s="18">
         <f>IF(ISBLANK(E157),0,IF(E157=Answers!E150,1,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G157" s="34">
         <v>531444</v>
@@ -9142,8 +9495,63 @@
         <f t="array" ref="K157">INDEX(_xlfn.LET(_xlpm.nm, G157, _xlpm.no, _tI[Note], _xlpm.qt, _tI[Quant], _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0))))),2)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="2:11" ht="25.5" customHeight="1">
+      <c r="L157" s="62" cm="1">
+        <f t="array" ref="L157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, L$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!L$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="M157" s="62" cm="1">
+        <f t="array" ref="M157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, M$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!M$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>123</v>
+      </c>
+      <c r="N157" s="62" cm="1">
+        <f t="array" ref="N157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, N$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!N$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>46</v>
+      </c>
+      <c r="O157" s="62" cm="1">
+        <f t="array" ref="O157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, O$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!O$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="P157" s="62" cm="1">
+        <f t="array" ref="P157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, P$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!P$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="Q157" s="62" cm="1">
+        <f t="array" ref="Q157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, Q$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!Q$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>69</v>
+      </c>
+      <c r="R157" s="62" cm="1">
+        <f t="array" ref="R157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, R$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!R$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>109</v>
+      </c>
+      <c r="S157" s="62" cm="1">
+        <f t="array" ref="S157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, S$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!S$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="T157" s="62" cm="1">
+        <f t="array" ref="T157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, T$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!T$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="U157" s="62" cm="1">
+        <f t="array" ref="U157">INDEX(_xlfn.LET(_xlpm.ex, COUNTIF($W$151:$W156, U$151), _xlpm.nm, $G157, _xlpm.no, _xlfn._xlws.FILTER(_tBank[[Note]:[Note]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), _xlpm.qt, _xlfn._xlws.FILTER(_tBank[[Quant]:[Quant]], _tBank[[Bank]:[Bank]] = 'Case EN'!U$151), IF(_xlpm.ex &gt; 0, _xlfn.VSTACK(0, 1000000000), _xlfn.REDUCE(_xlfn.VSTACK(_xlpm.nm, 0), _xlfn.SEQUENCE(7), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.LET(_xlpm.am, INDEX(_xlpm.a, 1), _xlpm.nm, INDEX(_xlpm.a, 2), _xlpm.mx, INDEX(_xlpm.qt, _xlpm.v), _xlpm.div, INDEX(_xlpm.no, _xlpm.v), _xlpm.n_0, MIN(QUOTIENT(_xlpm.am, _xlpm.div), _xlpm.mx), _xlfn.VSTACK(INDEX(_xlpm.a, 1) - _xlpm.n_0 * _xlpm.div, INDEX(_xlpm.a, 2) + _xlpm.n_0)))))), 2)</f>
+        <v>58</v>
+      </c>
+      <c r="V157" s="2">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="W157" s="2" t="str" cm="1">
+        <f t="array" ref="W157">INDEX($L$151:$U$151,_xlfn.XMATCH(MIN(L157:U157),L157:U157))</f>
+        <v>ExFunds</v>
+      </c>
+      <c r="X157" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>ExFunds: 46</v>
+      </c>
+      <c r="Z157" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="25.5" customHeight="1">
       <c r="B158" s="36">
         <v>57</v>
       </c>
@@ -9168,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="25.5" customHeight="1">
+    <row r="159" spans="1:26" ht="25.5" customHeight="1">
       <c r="B159" s="36">
         <v>58</v>
       </c>
@@ -9192,8 +9600,21 @@
       <c r="I159" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="2:11" ht="25.5" customHeight="1">
+      <c r="S159" s="2">
+        <v>78121</v>
+      </c>
+      <c r="T159" s="2">
+        <v>59042</v>
+      </c>
+      <c r="U159" s="2">
+        <v>2020</v>
+      </c>
+      <c r="V159" s="2">
+        <f>QUOTIENT(S159,T159)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" ht="25.5" customHeight="1">
       <c r="B160" s="36">
         <v>59</v>
       </c>
@@ -9217,8 +9638,21 @@
       <c r="I160" s="34">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" ht="25.5" customHeight="1">
+      <c r="S160" s="2">
+        <f>S159-T159*V159</f>
+        <v>19079</v>
+      </c>
+      <c r="T160" s="2">
+        <v>34102</v>
+      </c>
+      <c r="U160" s="2">
+        <v>2393</v>
+      </c>
+      <c r="V160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:22" ht="25.5" customHeight="1">
       <c r="B161" s="36">
         <v>60</v>
       </c>
@@ -9242,8 +9676,21 @@
       <c r="I161" s="34">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" ht="25.5" customHeight="1">
+      <c r="S161" s="2">
+        <v>19079</v>
+      </c>
+      <c r="T161" s="2">
+        <v>7985</v>
+      </c>
+      <c r="U161" s="2">
+        <v>3959</v>
+      </c>
+      <c r="V161" s="2">
+        <f>QUOTIENT(S161,T161)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:22" ht="25.5" customHeight="1">
       <c r="B162" s="36">
         <v>61</v>
       </c>
@@ -9267,8 +9714,22 @@
       <c r="I162" s="34">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="2:9" ht="25.5" customHeight="1">
+      <c r="S162" s="2">
+        <f>S161-T161*V161</f>
+        <v>3109</v>
+      </c>
+      <c r="T162" s="2">
+        <v>1213</v>
+      </c>
+      <c r="U162" s="2">
+        <v>3346</v>
+      </c>
+      <c r="V162" s="2">
+        <f>QUOTIENT(S162,T162)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:22" ht="25.5" customHeight="1">
       <c r="B163" s="36">
         <v>62</v>
       </c>
@@ -9292,8 +9753,22 @@
       <c r="I163" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" ht="25.5" customHeight="1">
+      <c r="S163" s="2">
+        <f>S162-V162*T162</f>
+        <v>683</v>
+      </c>
+      <c r="T163" s="2">
+        <v>145</v>
+      </c>
+      <c r="U163" s="2">
+        <v>2299</v>
+      </c>
+      <c r="V163" s="2">
+        <f>QUOTIENT(S163,T163)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="2:22" ht="25.5" customHeight="1">
       <c r="B164" s="36">
         <v>63</v>
       </c>
@@ -9317,8 +9792,22 @@
       <c r="I164" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" ht="25.5" customHeight="1">
+      <c r="S164" s="2">
+        <f>S163-V163*T163</f>
+        <v>103</v>
+      </c>
+      <c r="T164" s="2">
+        <v>50</v>
+      </c>
+      <c r="U164" s="2">
+        <v>2887</v>
+      </c>
+      <c r="V164" s="2">
+        <f>QUOTIENT(S164,T164)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="2:22" ht="25.5" customHeight="1">
       <c r="B165" s="36">
         <v>64</v>
       </c>
@@ -9342,8 +9831,21 @@
       <c r="I165" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" ht="25.5" customHeight="1">
+      <c r="S165" s="2">
+        <f>S164-T164*V164</f>
+        <v>3</v>
+      </c>
+      <c r="T165" s="2">
+        <v>1</v>
+      </c>
+      <c r="U165" s="2">
+        <v>3177</v>
+      </c>
+      <c r="V165" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:22" ht="25.5" customHeight="1">
       <c r="B166" s="36">
         <v>65</v>
       </c>
@@ -9368,7 +9870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="25.5" customHeight="1">
+    <row r="167" spans="2:22" ht="25.5" customHeight="1">
       <c r="B167" s="36">
         <v>66</v>
       </c>
@@ -9393,7 +9895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="25.5" customHeight="1">
+    <row r="168" spans="2:22" ht="25.5" customHeight="1">
       <c r="B168" s="36">
         <v>67</v>
       </c>
@@ -9418,7 +9920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="25.5" customHeight="1">
+    <row r="169" spans="2:22" ht="25.5" customHeight="1">
       <c r="B169" s="36">
         <v>68</v>
       </c>
@@ -9443,7 +9945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="25.5" customHeight="1">
+    <row r="170" spans="2:22" ht="25.5" customHeight="1">
       <c r="B170" s="36">
         <v>69</v>
       </c>
@@ -9468,7 +9970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="25.5" customHeight="1">
+    <row r="171" spans="2:22" ht="25.5" customHeight="1">
       <c r="B171" s="36">
         <v>70</v>
       </c>
@@ -9491,6 +9993,18 @@
       </c>
       <c r="I171" s="34">
         <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="2:22">
+      <c r="G175" s="3">
+        <f>PERMUT(10,6)</f>
+        <v>151200</v>
+      </c>
+    </row>
+    <row r="176" spans="2:22">
+      <c r="G176" s="3">
+        <f>10*9*8*7*6*5</f>
+        <v>151200</v>
       </c>
     </row>
   </sheetData>
@@ -9847,8 +10361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF27E72-C0A8-423E-B550-B7E133FBE934}">
   <dimension ref="A2:O164"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView topLeftCell="D162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145:H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
@@ -9876,18 +10390,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="2:11" ht="21.75" customHeight="1">
       <c r="B3" s="1"/>
@@ -9900,46 +10414,46 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1">
-      <c r="B4" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="67.5" customHeight="1">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
       <c r="B7" s="4"/>
@@ -9997,13 +10511,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="2:11" ht="64.5" customHeight="1">
       <c r="B12" s="19" t="s">
@@ -10019,13 +10533,13 @@
         <v>2204096</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1">
       <c r="B13" s="19" t="s">
@@ -10041,13 +10555,13 @@
         <v>10004117235</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="33.75" customHeight="1">
       <c r="B14" s="19" t="s">
@@ -10063,13 +10577,13 @@
         <v>949</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="21" customHeight="1">
       <c r="B15" s="4"/>
@@ -10763,12 +11277,12 @@
       <c r="G70" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="73" t="s">
+      <c r="H70" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="75"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="80"/>
     </row>
     <row r="71" spans="2:11" ht="15" customHeight="1">
       <c r="B71" s="1"/>
@@ -11184,18 +11698,18 @@
       <c r="G93" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="73" t="s">
+      <c r="H93" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="74"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="73" t="s">
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="M93" s="74"/>
-      <c r="N93" s="74"/>
-      <c r="O93" s="75"/>
+      <c r="M93" s="79"/>
+      <c r="N93" s="79"/>
+      <c r="O93" s="80"/>
     </row>
     <row r="94" spans="2:15" ht="15" customHeight="1">
       <c r="B94" s="1"/>
@@ -13086,8 +13600,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A2:X98"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:I53"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="25.8"/>
